--- a/Gazetteer_Chapman_Colombia_Expeditions.xlsx
+++ b/Gazetteer_Chapman_Colombia_Expeditions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glennseeholzer/Dropbox/Chapman/database.historical/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glennseeholzer/Dropbox/Chapman/expediciornis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCF07F6-6494-394D-A995-C13AC3A445A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29436B1D-DAAA-E84E-B7A3-3FCE7D372EF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="460" windowWidth="25100" windowHeight="17260" xr2:uid="{3D1F2814-41A2-A340-856E-49F90DDEFF78}"/>
+    <workbookView xWindow="14840" yWindow="460" windowWidth="21480" windowHeight="17260" xr2:uid="{3D1F2814-41A2-A340-856E-49F90DDEFF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="777">
   <si>
     <t>Lat</t>
   </si>
@@ -408,9 +408,6 @@
     <t xml:space="preserve">sea-level. </t>
   </si>
   <si>
-    <t xml:space="preserve">A station on the railway line between Puerto Colom- bia and Barranquilla. On one side lie the open savannas of the arid coastal zone, on the other, mangrove-bordered streams and lagoons. </t>
-  </si>
-  <si>
     <t>March 23-26, 1915</t>
   </si>
   <si>
@@ -630,9 +627,6 @@
     <t>Opon</t>
   </si>
   <si>
-    <t>Carthagena</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lat. 100 25', Long. 75 40'; sea-level. </t>
   </si>
   <si>
@@ -1227,9 +1221,6 @@
     <t>Rio Andagueda</t>
   </si>
   <si>
-    <t>Rio Ca.Ion</t>
-  </si>
-  <si>
     <t>Rio Calma</t>
   </si>
   <si>
@@ -1725,9 +1716,6 @@
     <t>A range on the Pacific coast west of Quibd6. Our 86 specimens from these mountains were all collected by Mrs. Kerr, noneat a higher altitude than 2500 feet. The exact locality is not stated. Collections from the summit of this range are greatly to be desired.</t>
   </si>
   <si>
-    <t>A generalized regional name applied to native-made skins shipped from the city of Bogota. By far the greater number of these skins are secured within the area lying between the Magdalena Valley and the ilanos at the base of the Andes on the east, and boundaries of the Department of Cundinamarea at the north and south (but see further details under "Bogota collections" in the Review of Colombian Ornithology).</t>
-  </si>
-  <si>
     <t xml:space="preserve">A city near the Venezuelan boundary. </t>
   </si>
   <si>
@@ -2163,9 +2151,6 @@
     <t>Santander</t>
   </si>
   <si>
-    <t>Iconozo</t>
-  </si>
-  <si>
     <t>Facatativa</t>
   </si>
   <si>
@@ -2356,13 +2341,31 @@
   </si>
   <si>
     <t>Remarks.GFS</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Filandia</t>
+  </si>
+  <si>
+    <t>Not described in Chapman locality glossery but listed on a few specimens from CUMV. Looks like Fuertes collected a few specimens while transiting to Salento.</t>
+  </si>
+  <si>
+    <t>﻿Icononzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A station on the railway line between Puerto Colombia and Barranquilla. On one side lie the open savannas of the arid coastal zone, on the other, mangrove-bordered streams and lagoons. </t>
+  </si>
+  <si>
+    <t>Rio CaIon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2371,6 +2374,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Inherit"/>
@@ -2396,7 +2405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2404,6 +2413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2721,10 +2731,10 @@
   <dimension ref="A1:N239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M215" sqref="M215"/>
+      <selection pane="bottomRight" activeCell="A239" sqref="A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2745,10 +2755,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2766,10 +2776,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -2781,7 +2791,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -2789,13 +2799,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J2" s="1">
         <v>73</v>
@@ -2806,13 +2816,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
@@ -2823,7 +2833,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C4" s="1">
         <v>4.388401</v>
@@ -2835,13 +2845,13 @@
         <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="J4" s="1">
         <v>75</v>
@@ -2853,7 +2863,7 @@
         <v>70</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="N4" s="1">
         <v>188</v>
@@ -2861,10 +2871,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C5" s="1">
         <v>4.7830719999999998</v>
@@ -2873,16 +2883,16 @@
         <v>-76.173270000000002</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="J5" s="1">
         <v>45</v>
@@ -2891,10 +2901,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="N5" s="1">
         <v>28</v>
@@ -2902,10 +2912,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C6" s="1">
         <v>9.3833330000000004</v>
@@ -2914,13 +2924,13 @@
         <v>-74.75</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J6" s="1">
         <v>127</v>
@@ -2929,10 +2939,10 @@
         <v>7</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -2941,7 +2951,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C7" s="1">
         <v>1.916191</v>
@@ -2956,7 +2966,7 @@
         <v>78</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J7" s="1">
         <v>61</v>
@@ -2968,7 +2978,7 @@
         <v>80</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="N7" s="1">
         <v>175</v>
@@ -2976,13 +2986,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J8" s="1">
         <v>118</v>
@@ -2996,7 +3006,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1">
         <v>7.061534</v>
@@ -3014,7 +3024,7 @@
         <v>52</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J9" s="1">
         <v>5</v>
@@ -3026,7 +3036,7 @@
         <v>54</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="N9" s="1">
         <v>255</v>
@@ -3037,7 +3047,7 @@
         <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C10" s="1">
         <v>1.9106240000000001</v>
@@ -3049,13 +3059,13 @@
         <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="J10" s="1">
         <v>67</v>
@@ -3067,7 +3077,7 @@
         <v>59</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="N10" s="1">
         <v>248</v>
@@ -3075,13 +3085,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J11" s="1">
         <v>36</v>
@@ -3092,10 +3102,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C12" s="1">
         <v>4.7617380000000002</v>
@@ -3104,13 +3114,13 @@
         <v>-74.464726999999996</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J12" s="1">
         <v>85</v>
@@ -3121,13 +3131,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="3"/>
@@ -3135,13 +3145,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J14" s="1">
         <v>136</v>
@@ -3152,13 +3162,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="J15" s="1">
         <v>135</v>
@@ -3169,13 +3179,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J16" s="1">
         <v>155</v>
@@ -3186,10 +3196,10 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C17" s="1">
         <v>5.4123939999999999</v>
@@ -3198,13 +3208,13 @@
         <v>-76.414856</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J17" s="1">
         <v>9</v>
@@ -3215,10 +3225,10 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C18" s="1">
         <v>9</v>
@@ -3230,7 +3240,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="3"/>
@@ -3241,7 +3251,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C19" s="1">
         <v>1.6733150000000001</v>
@@ -3256,10 +3266,10 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="J19" s="1">
         <v>29</v>
@@ -3268,10 +3278,10 @@
         <v>6</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="N19" s="1">
         <v>491</v>
@@ -3279,13 +3289,13 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="J20" s="1">
         <v>130</v>
@@ -3296,10 +3306,10 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C21" s="1">
         <v>4.1666670000000003</v>
@@ -3308,13 +3318,13 @@
         <v>-73.016666999999998</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J21" s="1">
         <v>169</v>
@@ -3325,10 +3335,10 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C22" s="1">
         <v>6.25</v>
@@ -3337,13 +3347,13 @@
         <v>-75.383332999999993</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J22" s="1">
         <v>39</v>
@@ -3352,10 +3362,10 @@
         <v>8</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="N22" s="1">
         <v>88</v>
@@ -3363,10 +3373,10 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C23" s="1">
         <v>6</v>
@@ -3375,13 +3385,13 @@
         <v>-77.083332999999996</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="3"/>
@@ -3389,10 +3399,10 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C24" s="1">
         <v>8.9499999999999993</v>
@@ -3401,13 +3411,13 @@
         <v>-74.016666999999998</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="J24" s="1">
         <v>124</v>
@@ -3416,10 +3426,10 @@
         <v>8</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="N24" s="1">
         <v>10</v>
@@ -3427,10 +3437,10 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C25" s="1">
         <v>4.5999999999999996</v>
@@ -3439,13 +3449,13 @@
         <v>-74.083332999999996</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J25" s="1">
         <v>179</v>
@@ -3454,10 +3464,10 @@
         <v>7</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="N25" s="1">
         <v>80</v>
@@ -3465,13 +3475,16 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>565</v>
+        <v>227</v>
+      </c>
+      <c r="J26" s="1">
+        <v>141</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="3"/>
@@ -3479,16 +3492,16 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J27" s="1">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="3"/>
@@ -3496,274 +3509,280 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>230</v>
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4.1663410000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-73.682625000000002</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1370</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>231</v>
+        <v>22</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>232</v>
+        <v>525</v>
       </c>
       <c r="J28" s="1">
-        <v>108</v>
-      </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="K28" s="1">
+        <v>7</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="N28" s="1">
+        <v>408</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="C29" s="1">
-        <v>4.1663410000000001</v>
+        <v>3.8833329999999999</v>
       </c>
       <c r="D29" s="1">
-        <v>-73.682625000000002</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1370</v>
+        <v>-77.066666999999995</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>528</v>
+        <v>184</v>
       </c>
       <c r="J29" s="1">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="K29" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="N29" s="1">
-        <v>408</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C30" s="1">
-        <v>3.8833329999999999</v>
+        <v>1.4917260000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>-77.066666999999995</v>
+        <v>-78.077940999999996</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>45</v>
+        <v>470</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>185</v>
+        <v>523</v>
       </c>
       <c r="J30" s="1">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="N30" s="1">
-        <v>35</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1.4917260000000001</v>
-      </c>
-      <c r="D31" s="1">
-        <v>-78.077940999999996</v>
+        <v>232</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>473</v>
+        <v>53</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J31" s="1">
-        <v>30</v>
-      </c>
-      <c r="K31" s="1">
-        <v>6</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="N31" s="1">
-        <v>108</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>234</v>
+        <v>110</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10.250348000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-74.916503000000006</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="L32" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="J32" s="1">
+        <v>128</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="M32" s="3"/>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>112</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="C33" s="1">
-        <v>10.250348000000001</v>
+        <v>3.6581419999999998</v>
       </c>
       <c r="D33" s="1">
-        <v>-74.916503000000006</v>
+        <v>-76.690770999999998</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>112</v>
+        <v>501</v>
       </c>
       <c r="J33" s="1">
+        <v>22</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="N33" s="1">
         <v>128</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="1">
-        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C34" s="1">
-        <v>3.6581419999999998</v>
+        <v>3.451565</v>
       </c>
       <c r="D34" s="1">
-        <v>-76.690770999999998</v>
+        <v>-76.532071999999999</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="J34" s="1">
-        <v>22</v>
-      </c>
-      <c r="K34" s="1">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>737</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="M34" s="3"/>
       <c r="N34" s="1">
-        <v>128</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3.451565</v>
-      </c>
-      <c r="D35" s="1">
-        <v>-76.532071999999999</v>
+        <v>233</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>489</v>
+        <v>234</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="J35" s="1">
-        <v>53</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="L35" s="1"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="1">
-        <v>313</v>
-      </c>
+      <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="J36" s="1">
-        <v>113</v>
+        <v>695</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.7584500000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-75.634394999999998</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="3"/>
@@ -3771,22 +3790,19 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C37" s="1">
-        <v>1.7584500000000001</v>
+        <v>4.4166670000000003</v>
       </c>
       <c r="D37" s="1">
-        <v>-75.634394999999998</v>
+        <v>-73.95</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>756</v>
+        <v>45</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="3"/>
@@ -3794,16 +3810,16 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>475</v>
+        <v>706</v>
       </c>
       <c r="C38" s="1">
-        <v>4.4166670000000003</v>
+        <v>8.0833329999999997</v>
       </c>
       <c r="D38" s="1">
-        <v>-73.95</v>
+        <v>-73.849999999999994</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>45</v>
@@ -3814,19 +3830,16 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C39" s="1">
-        <v>8.0833329999999997</v>
-      </c>
-      <c r="D39" s="1">
-        <v>-73.849999999999994</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>45</v>
+        <v>771</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="3"/>
@@ -3834,16 +3847,16 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>203</v>
+        <v>565</v>
+      </c>
+      <c r="J40" s="1">
+        <v>125</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="3"/>
@@ -3851,16 +3864,13 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="J41" s="1">
-        <v>125</v>
+        <v>566</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="3"/>
@@ -3868,184 +3878,196 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
-        <v>238</v>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.5322629999999999</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-76.949560000000005</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2540</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>193</v>
+        <v>42</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="L42" s="1"/>
+        <v>505</v>
+      </c>
+      <c r="J42" s="1">
+        <v>57</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="M42" s="3"/>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1">
+        <v>311</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C43" s="1">
-        <v>2.5322629999999999</v>
+        <v>4.2149169999999998</v>
       </c>
       <c r="D43" s="1">
-        <v>-76.949560000000005</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2540</v>
+        <v>-74.981131000000005</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>508</v>
+        <v>752</v>
       </c>
       <c r="J43" s="1">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="1">
-        <v>311</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C44" s="1">
-        <v>4.2149169999999998</v>
-      </c>
-      <c r="D44" s="1">
-        <v>-74.981131000000005</v>
+        <v>237</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>489</v>
+        <v>46</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>757</v>
+        <v>567</v>
       </c>
       <c r="J44" s="1">
-        <v>69</v>
-      </c>
-      <c r="K44" s="1">
-        <v>3</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="L44" s="1"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="1">
-        <v>186</v>
-      </c>
+      <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
-        <v>239</v>
+        <v>103</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4.4430550000000002</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-74.044987000000006</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>571</v>
+        <v>105</v>
       </c>
       <c r="J45" s="1">
-        <v>154</v>
-      </c>
-      <c r="L45" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="K45" s="1">
+        <v>7</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="M45" s="3"/>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1">
+        <v>120</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C46" s="1">
-        <v>4.4430550000000002</v>
-      </c>
-      <c r="D46" s="1">
-        <v>-74.044987000000006</v>
+        <v>238</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>489</v>
+        <v>239</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="J46" s="1">
-        <v>82</v>
-      </c>
-      <c r="K46" s="1">
-        <v>7</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="L46" s="1"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="1">
-        <v>120</v>
-      </c>
+      <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F47" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4.55</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-73.966667000000001</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I47" s="1" t="s">
-        <v>242</v>
+        <v>568</v>
       </c>
       <c r="J47" s="1">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="3"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" ht="16" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>243</v>
+        <v>693</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>475</v>
+        <v>692</v>
       </c>
       <c r="C48" s="1">
-        <v>4.55</v>
+        <v>11.016667</v>
       </c>
       <c r="D48" s="1">
-        <v>-73.966667000000001</v>
+        <v>-74.25</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="J48" s="1">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="3"/>
@@ -4053,25 +4075,16 @@
     </row>
     <row r="49" spans="1:14" ht="16" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C49" s="1">
-        <v>11.016667</v>
-      </c>
-      <c r="D49" s="1">
-        <v>-74.25</v>
+        <v>244</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>245</v>
+        <v>569</v>
+      </c>
+      <c r="J49" s="1">
+        <v>144</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="3"/>
@@ -4079,166 +4092,163 @@
     </row>
     <row r="50" spans="1:14" ht="16" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>246</v>
+        <v>453</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3.78274</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-76.760142000000002</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>22</v>
+        <v>162</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>573</v>
+        <v>753</v>
       </c>
       <c r="J50" s="1">
-        <v>144</v>
-      </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="N50" s="1">
+        <v>82</v>
+      </c>
     </row>
     <row r="51" spans="1:14" ht="16" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3.78274</v>
-      </c>
-      <c r="D51" s="1">
-        <v>-76.760142000000002</v>
+        <v>245</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>759</v>
+        <v>192</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>758</v>
+        <v>570</v>
       </c>
       <c r="J51" s="1">
-        <v>21</v>
-      </c>
-      <c r="K51" s="1">
-        <v>1</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="N51" s="1">
-        <v>82</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" ht="16" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>247</v>
+        <v>475</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.5155249999999998</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-76.963571000000002</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>193</v>
+        <v>60</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>574</v>
+        <v>498</v>
       </c>
       <c r="J52" s="1">
-        <v>153</v>
-      </c>
-      <c r="L52" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="M52" s="3"/>
-      <c r="N52" s="1"/>
+      <c r="N52" s="1">
+        <v>235</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="16" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.5166750000000002</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-76.999987000000004</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1225</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2.5155249999999998</v>
-      </c>
-      <c r="D53" s="1">
-        <v>-76.963571000000002</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="I53" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="J53" s="1">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="K53" s="1">
         <v>2</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="1">
-        <v>235</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="16" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2.5166750000000002</v>
-      </c>
-      <c r="D54" s="1">
-        <v>-76.999987000000004</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1225</v>
+        <v>246</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>481</v>
+        <v>247</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="J54" s="1">
-        <v>26</v>
-      </c>
-      <c r="K54" s="1">
-        <v>2</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="L54" s="1"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="1">
-        <v>149</v>
-      </c>
+      <c r="N54" s="1"/>
     </row>
     <row r="55" spans="1:14" ht="16" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>248</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="J55" s="1">
-        <v>110</v>
+        <v>572</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="3"/>
@@ -4246,13 +4256,10 @@
     </row>
     <row r="56" spans="1:14" ht="16" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>576</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="3"/>
@@ -4262,8 +4269,14 @@
       <c r="A57" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="F57" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="I57" s="1" t="s">
-        <v>252</v>
+        <v>293</v>
+      </c>
+      <c r="J57" s="1">
+        <v>43</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="3"/>
@@ -4277,10 +4290,10 @@
         <v>254</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>295</v>
+        <v>573</v>
       </c>
       <c r="J58" s="1">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="3"/>
@@ -4288,16 +4301,16 @@
     </row>
     <row r="59" spans="1:14" ht="16" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>255</v>
+        <v>466</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="J59" s="1">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="3"/>
@@ -4305,16 +4318,28 @@
     </row>
     <row r="60" spans="1:14" ht="16" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>469</v>
+        <v>255</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7.0009620000000004</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-76.265512999999999</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>233</v>
+        <v>256</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="J60" s="1">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="3"/>
@@ -4324,26 +4349,11 @@
       <c r="A61" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" s="1">
-        <v>7.0009620000000004</v>
-      </c>
-      <c r="D61" s="1">
-        <v>-76.265512999999999</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>489</v>
+        <v>192</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="J61" s="1">
-        <v>6</v>
+        <v>575</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="3"/>
@@ -4351,13 +4361,16 @@
     </row>
     <row r="62" spans="1:14" ht="16" customHeight="1">
       <c r="A62" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="I62" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
+      </c>
+      <c r="J62" s="1">
+        <v>93</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="3"/>
@@ -4368,13 +4381,10 @@
         <v>260</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="J63" s="1">
-        <v>93</v>
+        <v>578</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="3"/>
@@ -4382,13 +4392,16 @@
     </row>
     <row r="64" spans="1:14" ht="16" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>262</v>
+        <v>694</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
+      </c>
+      <c r="J64" s="1">
+        <v>95</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="3"/>
@@ -4396,108 +4409,105 @@
     </row>
     <row r="65" spans="1:14" ht="16" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>698</v>
+        <v>178</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5.0666669999999998</v>
+      </c>
+      <c r="D65" s="1">
+        <v>-74.599999999999994</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>263</v>
+        <v>179</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>581</v>
+        <v>531</v>
       </c>
       <c r="J65" s="1">
-        <v>95</v>
-      </c>
-      <c r="L65" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="K65" s="1">
+        <v>7</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="M65" s="3"/>
-      <c r="N65" s="1"/>
+      <c r="N65" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="66" spans="1:14" ht="16" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C66" s="1">
-        <v>5.0666669999999998</v>
+        <v>4.5</v>
       </c>
       <c r="D66" s="1">
-        <v>-74.599999999999994</v>
+        <v>-75.333332999999996</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="J66" s="1">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K66" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="1">
-        <v>37</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="16" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C67" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="D67" s="1">
-        <v>-75.333332999999996</v>
+        <v>263</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>485</v>
+        <v>264</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="J67" s="1">
-        <v>71</v>
-      </c>
-      <c r="K67" s="1">
-        <v>3</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L67" s="1"/>
       <c r="M67" s="3"/>
-      <c r="N67" s="1">
-        <v>138</v>
-      </c>
+      <c r="N67" s="1"/>
     </row>
     <row r="68" spans="1:14" ht="16" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="J68" s="1">
-        <v>160</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>267</v>
+        <v>579</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="3"/>
@@ -4511,7 +4521,10 @@
         <v>269</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
+      </c>
+      <c r="J69" s="1">
+        <v>156</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="3"/>
@@ -4522,13 +4535,10 @@
         <v>270</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="J70" s="1">
-        <v>156</v>
+        <v>581</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="3"/>
@@ -4536,102 +4546,102 @@
     </row>
     <row r="71" spans="1:14" ht="16" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>272</v>
+        <v>697</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4.4257520000000001</v>
+      </c>
+      <c r="D71" s="1">
+        <v>-74.293205</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>193</v>
+        <v>116</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="L71" s="1"/>
+        <v>528</v>
+      </c>
+      <c r="J71" s="1">
+        <v>77</v>
+      </c>
+      <c r="K71" s="1">
+        <v>7</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="M71" s="3"/>
-      <c r="N71" s="1"/>
+      <c r="N71" s="1">
+        <v>112</v>
+      </c>
     </row>
     <row r="72" spans="1:14" ht="16" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>701</v>
+        <v>741</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C72" s="1">
-        <v>4.4257520000000001</v>
+        <v>4.4149640000000003</v>
       </c>
       <c r="D72" s="1">
-        <v>-74.293205</v>
+        <v>-74.302553000000003</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2468</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>115</v>
+        <v>674</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="J72" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K72" s="1">
         <v>7</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="1">
-        <v>112</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C73" s="1">
-        <v>4.4149640000000003</v>
-      </c>
-      <c r="D73" s="1">
-        <v>-74.302553000000003</v>
-      </c>
-      <c r="E73" s="1">
-        <v>2468</v>
+        <v>271</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>678</v>
+        <v>272</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="J73" s="1">
-        <v>76</v>
-      </c>
-      <c r="K73" s="1">
-        <v>7</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="L73" s="1"/>
       <c r="M73" s="3"/>
-      <c r="N73" s="1">
-        <v>192</v>
-      </c>
+      <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" ht="16" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>274</v>
+        <v>91</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="3"/>
@@ -4642,10 +4652,13 @@
         <v>273</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
+      </c>
+      <c r="J75" s="1">
+        <v>41</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="3"/>
@@ -4653,16 +4666,19 @@
     </row>
     <row r="76" spans="1:14" ht="16" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="J76" s="1">
-        <v>41</v>
+        <v>707</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C76" s="1">
+        <v>4.8166669999999998</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-74.366667000000007</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="3"/>
@@ -4670,19 +4686,22 @@
     </row>
     <row r="77" spans="1:14" ht="16" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>712</v>
+        <v>772</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C77" s="1">
-        <v>4.8166669999999998</v>
+        <v>390</v>
+      </c>
+      <c r="C77" s="7">
+        <v>4.6666040000000004</v>
       </c>
       <c r="D77" s="1">
-        <v>-74.366667000000007</v>
+        <v>-75.633341999999999</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="3"/>
@@ -4693,7 +4712,7 @@
         <v>48</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C78" s="1">
         <v>1.6157049999999999</v>
@@ -4708,10 +4727,10 @@
         <v>49</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J78" s="1">
         <v>171</v>
@@ -4729,10 +4748,10 @@
     </row>
     <row r="79" spans="1:14" ht="16" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C79" s="6">
         <v>3.3238259999999999</v>
@@ -4741,7 +4760,7 @@
         <v>-76.234682000000006</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="3"/>
@@ -4749,13 +4768,13 @@
     </row>
     <row r="80" spans="1:14" ht="16" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J80" s="1">
         <v>84</v>
@@ -4766,13 +4785,13 @@
     </row>
     <row r="81" spans="1:14" ht="16" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J81" s="1">
         <v>7</v>
@@ -4783,10 +4802,10 @@
     </row>
     <row r="82" spans="1:14" ht="16" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C82" s="6">
         <v>10.516667</v>
@@ -4795,13 +4814,13 @@
         <v>-74.183333000000005</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="3"/>
@@ -4809,10 +4828,10 @@
     </row>
     <row r="83" spans="1:14" ht="16" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C83" s="1">
         <v>4.3499999999999996</v>
@@ -4821,13 +4840,13 @@
         <v>-74.366667000000007</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="J83" s="1">
         <v>74</v>
@@ -4836,7 +4855,7 @@
         <v>7</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M83" s="3"/>
       <c r="N83" s="1">
@@ -4848,7 +4867,7 @@
         <v>122</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C84" s="1">
         <v>2.5379450000000001</v>
@@ -4860,10 +4879,10 @@
         <v>58</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J84" s="1">
         <v>25</v>
@@ -4881,10 +4900,10 @@
     </row>
     <row r="85" spans="1:14" ht="16" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C85" s="1">
         <v>2.9691360000000002</v>
@@ -4893,13 +4912,13 @@
         <v>-78.182655999999994</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J85" s="1">
         <v>27</v>
@@ -4910,13 +4929,13 @@
     </row>
     <row r="86" spans="1:14" ht="16" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J86" s="1">
         <v>96</v>
@@ -4927,10 +4946,10 @@
     </row>
     <row r="87" spans="1:14" ht="16" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C87" s="1">
         <v>3.233333</v>
@@ -4939,13 +4958,13 @@
         <v>-76.349999999999994</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J87" s="1">
         <v>55</v>
@@ -4954,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M87" s="3"/>
       <c r="N87" s="1">
@@ -4963,13 +4982,13 @@
     </row>
     <row r="88" spans="1:14" ht="16" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="J88" s="1">
         <v>116</v>
@@ -4983,7 +5002,7 @@
         <v>62</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C89" s="1">
         <v>5.2047059999999998</v>
@@ -4998,10 +5017,10 @@
         <v>63</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J89" s="1">
         <v>98</v>
@@ -5010,7 +5029,7 @@
         <v>7</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="M89" s="3"/>
       <c r="N89" s="1">
@@ -5019,10 +5038,10 @@
     </row>
     <row r="90" spans="1:14" ht="16" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C90" s="1">
         <v>5.1534769999999996</v>
@@ -5031,10 +5050,10 @@
         <v>-75.037125000000003</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="3"/>
@@ -5042,13 +5061,16 @@
     </row>
     <row r="91" spans="1:14" ht="16" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="J91" s="1">
         <v>70</v>
@@ -5058,11 +5080,11 @@
       <c r="N91" s="1"/>
     </row>
     <row r="92" spans="1:14" ht="16" customHeight="1">
-      <c r="A92" s="1" t="s">
-        <v>711</v>
+      <c r="A92" t="s">
+        <v>774</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C92" s="1">
         <v>4.1833330000000002</v>
@@ -5079,13 +5101,13 @@
     </row>
     <row r="93" spans="1:14" ht="16" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="3"/>
@@ -5093,13 +5115,13 @@
     </row>
     <row r="94" spans="1:14" ht="16" customHeight="1">
       <c r="A94" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I94" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="J94" s="1">
         <v>54</v>
@@ -5110,13 +5132,13 @@
     </row>
     <row r="95" spans="1:14" ht="16" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="3"/>
@@ -5124,10 +5146,10 @@
     </row>
     <row r="96" spans="1:14" ht="16" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C96" s="1">
         <v>4.983333</v>
@@ -5136,13 +5158,13 @@
         <v>-76.400000000000006</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J96" s="1">
         <v>14</v>
@@ -5151,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M96" s="3"/>
       <c r="N96" s="1">
@@ -5163,7 +5185,7 @@
         <v>44</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C97" s="1">
         <v>1.8332999999999999</v>
@@ -5181,7 +5203,7 @@
         <v>45</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J97" s="1">
         <v>65</v>
@@ -5199,13 +5221,13 @@
     </row>
     <row r="98" spans="1:14" ht="16" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="3"/>
@@ -5213,13 +5235,13 @@
     </row>
     <row r="99" spans="1:14" ht="16" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="J99" s="1">
         <v>115</v>
@@ -5230,13 +5252,13 @@
     </row>
     <row r="100" spans="1:14" ht="16" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J100" s="1">
         <v>99</v>
@@ -5247,10 +5269,10 @@
     </row>
     <row r="101" spans="1:14" ht="16" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C101" s="1">
         <v>2.5833330000000001</v>
@@ -5259,19 +5281,19 @@
         <v>-76.916667000000004</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K101" s="1">
         <v>2</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M101" s="3"/>
       <c r="N101" s="1">
@@ -5283,7 +5305,7 @@
         <v>89</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C102" s="1">
         <v>7.166722</v>
@@ -5298,7 +5320,7 @@
         <v>90</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J102" s="1">
         <v>34</v>
@@ -5316,13 +5338,13 @@
     </row>
     <row r="103" spans="1:14" ht="16" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="J103" s="1">
         <v>78</v>
@@ -5333,10 +5355,10 @@
     </row>
     <row r="104" spans="1:14" ht="16" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C104" s="6">
         <v>4.7</v>
@@ -5345,13 +5367,13 @@
         <v>-74.25</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="J104" s="1">
         <v>88</v>
@@ -5365,7 +5387,7 @@
         <v>100</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C105" s="1">
         <v>3.5832769999999998</v>
@@ -5380,7 +5402,7 @@
         <v>45</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J105" s="1">
         <v>51</v>
@@ -5392,7 +5414,7 @@
         <v>102</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="N105" s="1">
         <v>124</v>
@@ -5400,13 +5422,13 @@
     </row>
     <row r="106" spans="1:14" ht="16" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="3"/>
@@ -5414,13 +5436,13 @@
     </row>
     <row r="107" spans="1:14" ht="16" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="3"/>
@@ -5431,7 +5453,7 @@
         <v>17</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C108" s="1">
         <v>1.4877689999999999</v>
@@ -5446,13 +5468,13 @@
         <v>18</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="J108" s="1">
         <v>172</v>
@@ -5470,19 +5492,19 @@
     </row>
     <row r="109" spans="1:14" ht="16" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J109" s="1">
         <v>64</v>
@@ -5491,7 +5513,7 @@
         <v>5</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M109" s="3"/>
       <c r="N109" s="1">
@@ -5500,13 +5522,13 @@
     </row>
     <row r="110" spans="1:14" ht="16" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="J110" s="1">
         <v>89</v>
@@ -5520,7 +5542,7 @@
         <v>124</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C111" s="1">
         <v>11.033333000000001</v>
@@ -5535,7 +5557,7 @@
         <v>45</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>126</v>
+        <v>775</v>
       </c>
       <c r="J111" s="1">
         <v>131</v>
@@ -5544,7 +5566,7 @@
         <v>8</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M111" s="3"/>
       <c r="N111" s="1">
@@ -5553,19 +5575,19 @@
     </row>
     <row r="112" spans="1:14" ht="16" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="J112" s="1">
         <v>94</v>
@@ -5576,10 +5598,10 @@
     </row>
     <row r="113" spans="1:14" ht="16" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C113" s="6">
         <v>5</v>
@@ -5588,13 +5610,13 @@
         <v>-74.133332999999993</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J113" s="1">
         <v>92</v>
@@ -5605,13 +5627,13 @@
     </row>
     <row r="114" spans="1:14" ht="16" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="L114" s="1"/>
       <c r="M114" s="3"/>
@@ -5619,10 +5641,10 @@
     </row>
     <row r="115" spans="1:14" ht="16" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C115" s="1">
         <v>2.1785369999999999</v>
@@ -5634,10 +5656,10 @@
         <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J115" s="1">
         <v>59</v>
@@ -5646,7 +5668,7 @@
         <v>4</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M115" s="3"/>
       <c r="N115" s="1">
@@ -5655,13 +5677,13 @@
     </row>
     <row r="116" spans="1:14" ht="16" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="3"/>
@@ -5669,10 +5691,10 @@
     </row>
     <row r="117" spans="1:14" ht="16" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C117" s="6">
         <v>11.166667</v>
@@ -5689,10 +5711,10 @@
     </row>
     <row r="118" spans="1:14" ht="16" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C118" s="1">
         <v>5.4</v>
@@ -5701,13 +5723,13 @@
         <v>-76.383332999999993</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="3"/>
@@ -5718,7 +5740,7 @@
         <v>24</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C119" s="1">
         <v>4.5885699999999998</v>
@@ -5736,7 +5758,7 @@
         <v>25</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J119" s="1">
         <v>47</v>
@@ -5754,13 +5776,13 @@
     </row>
     <row r="120" spans="1:14" ht="16" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L120" s="1"/>
       <c r="M120" s="3"/>
@@ -5768,13 +5790,13 @@
     </row>
     <row r="121" spans="1:14" ht="16" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L121" s="1"/>
       <c r="M121" s="3"/>
@@ -5782,10 +5804,10 @@
     </row>
     <row r="122" spans="1:14" ht="16" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C122" s="1">
         <v>3.6363289999999999</v>
@@ -5797,13 +5819,13 @@
         <v>85</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="J122" s="1">
         <v>24</v>
@@ -5812,10 +5834,10 @@
         <v>1</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="N122" s="1">
         <v>165</v>
@@ -5823,13 +5845,13 @@
     </row>
     <row r="123" spans="1:14" ht="16" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="3"/>
@@ -5837,10 +5859,10 @@
     </row>
     <row r="124" spans="1:14" ht="16" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="3"/>
@@ -5848,13 +5870,13 @@
     </row>
     <row r="125" spans="1:14" ht="16" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="3"/>
@@ -5862,10 +5884,10 @@
     </row>
     <row r="126" spans="1:14" ht="16" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C126" s="6">
         <v>9.233333</v>
@@ -5882,10 +5904,10 @@
     </row>
     <row r="127" spans="1:14" ht="16" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C127" s="1">
         <v>6.450367</v>
@@ -5894,22 +5916,22 @@
         <v>-74.499759999999995</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K127" s="1">
         <v>8</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M127" s="3"/>
       <c r="N127" s="1">
@@ -5918,13 +5940,13 @@
     </row>
     <row r="128" spans="1:14" ht="16" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="3"/>
@@ -5932,13 +5954,13 @@
     </row>
     <row r="129" spans="1:14" ht="16" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="J129" s="1">
         <v>158</v>
@@ -5949,13 +5971,13 @@
     </row>
     <row r="130" spans="1:14" ht="16" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="J130" s="1">
         <v>142</v>
@@ -5966,13 +5988,13 @@
     </row>
     <row r="131" spans="1:14" ht="16" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="J131" s="1">
         <v>163</v>
@@ -5983,10 +6005,10 @@
     </row>
     <row r="132" spans="1:14" ht="16" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C132" s="6">
         <v>6.25</v>
@@ -5995,13 +6017,13 @@
         <v>-75.583332999999996</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J132" s="1">
         <v>37</v>
@@ -6012,13 +6034,13 @@
     </row>
     <row r="133" spans="1:14" ht="16" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="J133" s="1">
         <v>140</v>
@@ -6032,7 +6054,7 @@
         <v>13</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C134" s="1">
         <v>3.5832999999999999</v>
@@ -6050,10 +6072,10 @@
         <v>14</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="J134" s="1">
         <v>52</v>
@@ -6071,13 +6093,13 @@
     </row>
     <row r="135" spans="1:14" ht="16" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="3"/>
@@ -6085,10 +6107,10 @@
     </row>
     <row r="136" spans="1:14" ht="16" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C136" s="1">
         <v>4.2545039999999998</v>
@@ -6100,10 +6122,10 @@
         <v>22</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J136" s="1">
         <v>167</v>
@@ -6112,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M136" s="3"/>
       <c r="N136" s="1">
@@ -6121,10 +6143,10 @@
     </row>
     <row r="137" spans="1:14" ht="16" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C137" s="6">
         <v>5.5333329999999998</v>
@@ -6141,13 +6163,13 @@
     </row>
     <row r="138" spans="1:14" ht="16" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="3"/>
@@ -6155,13 +6177,13 @@
     </row>
     <row r="139" spans="1:14" ht="16" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="J139" s="1">
         <v>106</v>
@@ -6172,13 +6194,13 @@
     </row>
     <row r="140" spans="1:14" ht="16" customHeight="1">
       <c r="A140" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="I140" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="L140" s="1"/>
       <c r="M140" s="3"/>
@@ -6186,10 +6208,10 @@
     </row>
     <row r="141" spans="1:14" ht="16" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C141" s="1">
         <v>6.1859679999999999</v>
@@ -6198,13 +6220,13 @@
         <v>-74.583400999999995</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J141" s="1">
         <v>100</v>
@@ -6213,7 +6235,7 @@
         <v>7</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M141" s="3"/>
       <c r="N141" s="1">
@@ -6222,13 +6244,13 @@
     </row>
     <row r="142" spans="1:14" ht="16" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="3"/>
@@ -6236,10 +6258,10 @@
     </row>
     <row r="143" spans="1:14" ht="16" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C143" s="1">
         <v>4.7</v>
@@ -6248,13 +6270,13 @@
         <v>-76.933333000000005</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J143" s="1">
         <v>17</v>
@@ -6263,7 +6285,7 @@
         <v>3</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M143" s="3"/>
       <c r="N143" s="1">
@@ -6275,7 +6297,7 @@
         <v>74</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C144" s="1">
         <v>4.955959</v>
@@ -6287,10 +6309,10 @@
         <v>75</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J144" s="1">
         <v>15</v>
@@ -6308,7 +6330,7 @@
     </row>
     <row r="145" spans="1:14" ht="16" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="3"/>
@@ -6316,13 +6338,13 @@
     </row>
     <row r="146" spans="1:14" ht="16" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="J146" s="1">
         <v>117</v>
@@ -6333,13 +6355,13 @@
     </row>
     <row r="147" spans="1:14" ht="16" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="L147" s="1"/>
       <c r="M147" s="3"/>
@@ -6347,10 +6369,10 @@
     </row>
     <row r="148" spans="1:14" ht="16" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C148" s="1">
         <v>6.9666670000000002</v>
@@ -6359,13 +6381,13 @@
         <v>-73.883332999999993</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J148" s="1">
         <v>103</v>
@@ -6383,10 +6405,10 @@
     </row>
     <row r="149" spans="1:14" ht="16" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C149" s="6">
         <v>5.1310219999999997</v>
@@ -6395,7 +6417,7 @@
         <v>-74.158075999999994</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="3"/>
@@ -6403,10 +6425,10 @@
     </row>
     <row r="150" spans="1:14" ht="16" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C150" s="1">
         <v>3.5333329999999998</v>
@@ -6415,7 +6437,7 @@
         <v>-76.266666999999998</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K150" s="1">
         <v>1</v>
@@ -6428,10 +6450,10 @@
     </row>
     <row r="151" spans="1:14" ht="16" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C151" s="6">
         <v>5.0999999999999996</v>
@@ -6440,13 +6462,13 @@
         <v>-74.166667000000004</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="J151" s="1">
         <v>91</v>
@@ -6457,13 +6479,13 @@
     </row>
     <row r="152" spans="1:14" ht="16" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="J152" s="1">
         <v>146</v>
@@ -6477,7 +6499,7 @@
         <v>81</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C153" s="1">
         <v>7.1027300000000002</v>
@@ -6486,7 +6508,7 @@
         <v>-75.969299000000007</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>83</v>
@@ -6495,7 +6517,7 @@
         <v>82</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J153" s="1">
         <v>32</v>
@@ -6513,13 +6535,13 @@
     </row>
     <row r="154" spans="1:14" ht="16" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="J154" s="1">
         <v>152</v>
@@ -6530,13 +6552,13 @@
     </row>
     <row r="155" spans="1:14" ht="16" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="J155" s="1">
         <v>151</v>
@@ -6547,13 +6569,13 @@
     </row>
     <row r="156" spans="1:14" ht="16" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="J156" s="1">
         <v>162</v>
@@ -6564,10 +6586,10 @@
     </row>
     <row r="157" spans="1:14" ht="16" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C157" s="6">
         <v>7.4166670000000003</v>
@@ -6576,19 +6598,19 @@
         <v>-72.433333000000005</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J157" s="1">
         <v>161</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L157" s="1"/>
       <c r="M157" s="3"/>
@@ -6599,7 +6621,7 @@
         <v>64</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C158" s="1">
         <v>4.6803179999999998</v>
@@ -6614,10 +6636,10 @@
         <v>65</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J158" s="1">
         <v>49</v>
@@ -6635,13 +6657,13 @@
     </row>
     <row r="159" spans="1:14" ht="16" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J159" s="1">
         <v>62</v>
@@ -6652,13 +6674,13 @@
     </row>
     <row r="160" spans="1:14" ht="16" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="J160" s="1">
         <v>60</v>
@@ -6669,13 +6691,13 @@
     </row>
     <row r="161" spans="1:14" ht="16" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="J161" s="1">
         <v>104</v>
@@ -6686,10 +6708,10 @@
     </row>
     <row r="162" spans="1:14" ht="16" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C162" s="6">
         <v>3.6766540000000001</v>
@@ -6698,13 +6720,13 @@
         <v>-76.584214000000003</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J162" s="1">
         <v>23</v>
@@ -6715,10 +6737,10 @@
     </row>
     <row r="163" spans="1:14" ht="16" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C163" s="1">
         <v>7.0217219999999996</v>
@@ -6730,10 +6752,10 @@
         <v>91</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J163" s="1">
         <v>33</v>
@@ -6751,13 +6773,13 @@
     </row>
     <row r="164" spans="1:14" ht="16" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="J164" s="1">
         <v>114</v>
@@ -6768,13 +6790,13 @@
     </row>
     <row r="165" spans="1:14" ht="16" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="L165" s="1"/>
       <c r="M165" s="3"/>
@@ -6782,13 +6804,13 @@
     </row>
     <row r="166" spans="1:14" ht="16" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="L166" s="1"/>
       <c r="M166" s="3"/>
@@ -6796,13 +6818,13 @@
     </row>
     <row r="167" spans="1:14" ht="16" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J167" s="1">
         <v>121</v>
@@ -6813,10 +6835,10 @@
     </row>
     <row r="168" spans="1:14" ht="16" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C168" s="1">
         <v>2.4421170000000001</v>
@@ -6825,13 +6847,13 @@
         <v>-76.606365999999994</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J168" s="1">
         <v>56</v>
@@ -6845,13 +6867,13 @@
     </row>
     <row r="169" spans="1:14" ht="16" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="J169" s="1">
         <v>112</v>
@@ -6862,13 +6884,13 @@
     </row>
     <row r="170" spans="1:14" ht="16" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J170" s="1">
         <v>13</v>
@@ -6879,13 +6901,13 @@
     </row>
     <row r="171" spans="1:14" ht="16" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="J171" s="1">
         <v>150</v>
@@ -6896,10 +6918,10 @@
     </row>
     <row r="172" spans="1:14" ht="16" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C172" s="6">
         <v>4.9289129999999997</v>
@@ -6908,13 +6930,13 @@
         <v>-74.172393999999997</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="J172" s="1">
         <v>90</v>
@@ -6928,7 +6950,7 @@
         <v>107</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C173" s="1">
         <v>6.4896330000000004</v>
@@ -6940,10 +6962,10 @@
         <v>108</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J173" s="1">
         <v>101</v>
@@ -6961,13 +6983,13 @@
     </row>
     <row r="174" spans="1:14" ht="16" customHeight="1">
       <c r="A174" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I174" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="J174" s="1">
         <v>123</v>
@@ -6981,7 +7003,7 @@
         <v>34</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C175" s="1">
         <v>7.2893670000000004</v>
@@ -6996,10 +7018,10 @@
         <v>35</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J175" s="1">
         <v>35</v>
@@ -7017,13 +7039,13 @@
     </row>
     <row r="176" spans="1:14" ht="16" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J176" s="1">
         <v>105</v>
@@ -7034,10 +7056,10 @@
     </row>
     <row r="177" spans="1:14" ht="16" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C177" s="6">
         <v>5.95</v>
@@ -7054,10 +7076,10 @@
     </row>
     <row r="178" spans="1:14" ht="16" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C178" s="6">
         <v>3.8574250000000001</v>
@@ -7066,13 +7088,13 @@
         <v>-74.930802999999997</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="J178" s="1">
         <v>68</v>
@@ -7083,10 +7105,10 @@
     </row>
     <row r="179" spans="1:14" ht="16" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C179" s="1">
         <v>4.3303649999999996</v>
@@ -7095,13 +7117,13 @@
         <v>-73.862810999999994</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J179" s="1">
         <v>168</v>
@@ -7110,7 +7132,7 @@
         <v>7</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M179" s="3"/>
       <c r="N179" s="1">
@@ -7119,10 +7141,10 @@
     </row>
     <row r="180" spans="1:14" ht="16" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C180" s="1">
         <v>5.6926730000000001</v>
@@ -7131,13 +7153,13 @@
         <v>-76.660818000000006</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="J180" s="1">
         <v>8</v>
@@ -7148,13 +7170,13 @@
     </row>
     <row r="181" spans="1:14" ht="16" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="L181" s="1"/>
       <c r="M181" s="3"/>
@@ -7162,10 +7184,10 @@
     </row>
     <row r="182" spans="1:14" ht="16" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C182" s="6">
         <v>7.0281469999999997</v>
@@ -7174,13 +7196,13 @@
         <v>-74.693987000000007</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="J182" s="1">
         <v>120</v>
@@ -7191,10 +7213,10 @@
     </row>
     <row r="183" spans="1:14" ht="16" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C183" s="6">
         <v>10.7</v>
@@ -7206,7 +7228,7 @@
         <v>45</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K183" s="1">
         <v>7</v>
@@ -7221,13 +7243,13 @@
     </row>
     <row r="184" spans="1:14" ht="16" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="J184" s="1">
         <v>42</v>
@@ -7241,7 +7263,7 @@
         <v>120</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C185" s="1">
         <v>1.210709</v>
@@ -7256,10 +7278,10 @@
         <v>91</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J185" s="1">
         <v>31</v>
@@ -7277,10 +7299,10 @@
     </row>
     <row r="186" spans="1:14" ht="16" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C186" s="1">
         <v>5.516667</v>
@@ -7289,13 +7311,13 @@
         <v>-76.516666999999998</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J186" s="1">
         <v>10</v>
@@ -7306,13 +7328,13 @@
     </row>
     <row r="187" spans="1:14" ht="16" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L187" s="1"/>
       <c r="M187" s="3"/>
@@ -7320,13 +7342,13 @@
     </row>
     <row r="188" spans="1:14" ht="16" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>399</v>
+        <v>776</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="L188" s="1"/>
       <c r="M188" s="3"/>
@@ -7334,13 +7356,13 @@
     </row>
     <row r="189" spans="1:14" ht="16" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="L189" s="1"/>
       <c r="M189" s="3"/>
@@ -7348,13 +7370,13 @@
     </row>
     <row r="190" spans="1:14" ht="16" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="L190" s="1"/>
       <c r="M190" s="3"/>
@@ -7365,7 +7387,7 @@
         <v>93</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C191" s="1">
         <v>4.1567889999999998</v>
@@ -7377,10 +7399,10 @@
         <v>94</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J191" s="1">
         <v>50</v>
@@ -7398,13 +7420,13 @@
     </row>
     <row r="192" spans="1:14" ht="16" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L192" s="1"/>
       <c r="M192" s="3"/>
@@ -7412,13 +7434,13 @@
     </row>
     <row r="193" spans="1:14" ht="16" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="L193" s="1"/>
       <c r="M193" s="3"/>
@@ -7426,10 +7448,10 @@
     </row>
     <row r="194" spans="1:14" ht="16" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C194" s="6">
         <v>7.2833329999999998</v>
@@ -7446,13 +7468,13 @@
     </row>
     <row r="195" spans="1:14" ht="16" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J195" s="1">
         <v>4</v>
@@ -7463,10 +7485,10 @@
     </row>
     <row r="196" spans="1:14" ht="16" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C196" s="6">
         <v>8.7833330000000007</v>
@@ -7475,13 +7497,13 @@
         <v>-76.516666999999998</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="L196" s="1"/>
       <c r="M196" s="3"/>
@@ -7489,10 +7511,10 @@
     </row>
     <row r="197" spans="1:14" ht="16" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C197" s="6">
         <v>9.1166669999999996</v>
@@ -7512,7 +7534,7 @@
         <v>98</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C198" s="1">
         <v>4.5277329999999996</v>
@@ -7524,10 +7546,10 @@
         <v>15</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J198" s="1">
         <v>72</v>
@@ -7545,13 +7567,13 @@
     </row>
     <row r="199" spans="1:14" ht="16" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="J199" s="1">
         <v>3</v>
@@ -7562,10 +7584,10 @@
     </row>
     <row r="200" spans="1:14" ht="16" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C200" s="6">
         <v>7.45</v>
@@ -7574,7 +7596,7 @@
         <v>-77.116667000000007</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="L200" s="1"/>
       <c r="M200" s="3"/>
@@ -7585,7 +7607,7 @@
         <v>28</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C201" s="1">
         <v>4.6468249999999998</v>
@@ -7600,13 +7622,13 @@
         <v>29</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="J201" s="1">
         <v>46</v>
@@ -7627,7 +7649,7 @@
         <v>55</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C202" s="1">
         <v>1.8824890000000001</v>
@@ -7642,10 +7664,10 @@
         <v>56</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J202" s="1">
         <v>66</v>
@@ -7654,7 +7676,7 @@
         <v>5</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M202" s="3"/>
       <c r="N202" s="1">
@@ -7666,7 +7688,7 @@
         <v>9</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C203" s="1">
         <v>3.5</v>
@@ -7681,7 +7703,7 @@
         <v>14</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="J203" s="1">
         <v>54</v>
@@ -7690,10 +7712,10 @@
         <v>1</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="N203" s="1">
         <v>766</v>
@@ -7701,10 +7723,10 @@
     </row>
     <row r="204" spans="1:14" ht="16" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C204" s="6">
         <v>4.6166669999999996</v>
@@ -7713,7 +7735,7 @@
         <v>-74.349999999999994</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="L204" s="1"/>
       <c r="M204" s="3"/>
@@ -7721,13 +7743,13 @@
     </row>
     <row r="205" spans="1:14" ht="16" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L205" s="1"/>
       <c r="M205" s="3"/>
@@ -7735,10 +7757,10 @@
     </row>
     <row r="206" spans="1:14" ht="16" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L206" s="1"/>
       <c r="M206" s="3"/>
@@ -7746,10 +7768,10 @@
     </row>
     <row r="207" spans="1:14" ht="16" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C207" s="1">
         <v>3.85</v>
@@ -7758,13 +7780,13 @@
         <v>-76.866667000000007</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="J207" s="1">
         <v>20</v>
@@ -7773,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M207" s="3"/>
       <c r="N207" s="1">
@@ -7782,10 +7804,10 @@
     </row>
     <row r="208" spans="1:14" ht="16" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C208" s="6">
         <v>10.75</v>
@@ -7800,7 +7822,7 @@
         <v>45</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="L208" s="1"/>
       <c r="M208" s="3"/>
@@ -7808,13 +7830,13 @@
     </row>
     <row r="209" spans="1:14" ht="16" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="J209" s="1">
         <v>143</v>
@@ -7825,13 +7847,13 @@
     </row>
     <row r="210" spans="1:14" ht="16" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L210" s="1"/>
       <c r="M210" s="3"/>
@@ -7839,13 +7861,13 @@
     </row>
     <row r="211" spans="1:14" ht="16" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J211" s="1">
         <v>170</v>
@@ -7856,13 +7878,13 @@
     </row>
     <row r="212" spans="1:14" ht="16" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J212" s="1">
         <v>147</v>
@@ -7873,13 +7895,13 @@
     </row>
     <row r="213" spans="1:14" ht="16" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J213" s="1">
         <v>107</v>
@@ -7890,13 +7912,13 @@
     </row>
     <row r="214" spans="1:14" ht="16" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L214" s="1"/>
       <c r="M214" s="3"/>
@@ -7904,13 +7926,13 @@
     </row>
     <row r="215" spans="1:14" ht="16" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="J215" s="1">
         <v>148</v>
@@ -7921,10 +7943,10 @@
     </row>
     <row r="216" spans="1:14" ht="16" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C216" s="1">
         <v>6.209835</v>
@@ -7933,13 +7955,13 @@
         <v>-75.498125000000002</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J216" s="1">
         <v>38</v>
@@ -7948,7 +7970,7 @@
         <v>8</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M216" s="3"/>
       <c r="N216" s="1">
@@ -7957,10 +7979,10 @@
     </row>
     <row r="217" spans="1:14" ht="16" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C217" s="1">
         <v>4.6737520000000004</v>
@@ -7969,13 +7991,13 @@
         <v>-75.423862999999997</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J217" s="1">
         <v>48</v>
@@ -7984,7 +8006,7 @@
         <v>3</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M217" s="3"/>
       <c r="N217" s="1">
@@ -7993,13 +8015,13 @@
     </row>
     <row r="218" spans="1:14" ht="16" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J218" s="1">
         <v>138</v>
@@ -8010,13 +8032,13 @@
     </row>
     <row r="219" spans="1:14" ht="16" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J219" s="1">
         <v>119</v>
@@ -8027,13 +8049,13 @@
     </row>
     <row r="220" spans="1:14" ht="16" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="L220" s="1"/>
       <c r="M220" s="3"/>
@@ -8041,10 +8063,10 @@
     </row>
     <row r="221" spans="1:14" ht="16" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C221" s="6">
         <v>4.4891170000000002</v>
@@ -8053,13 +8075,13 @@
         <v>-74.260176999999999</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="L221" s="1"/>
       <c r="M221" s="3"/>
@@ -8067,10 +8089,10 @@
     </row>
     <row r="222" spans="1:14" ht="16" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C222" s="6">
         <v>9.4</v>
@@ -8082,7 +8104,7 @@
         <v>45</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="L222" s="1"/>
       <c r="M222" s="3"/>
@@ -8090,13 +8112,13 @@
     </row>
     <row r="223" spans="1:14" ht="16" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="J223" s="1">
         <v>18</v>
@@ -8107,10 +8129,10 @@
     </row>
     <row r="224" spans="1:14" ht="16" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C224" s="6">
         <v>4.7220000000000004</v>
@@ -8119,13 +8141,13 @@
         <v>-74.076374000000001</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L224" s="1"/>
       <c r="M224" s="3"/>
@@ -8133,10 +8155,10 @@
     </row>
     <row r="225" spans="1:14" ht="16" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C225" s="1">
         <v>4.5670000000000002</v>
@@ -8145,13 +8167,13 @@
         <v>-74.45</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J225" s="1">
         <v>87</v>
@@ -8162,10 +8184,10 @@
     </row>
     <row r="226" spans="1:14" ht="16" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C226" s="6">
         <v>4.2</v>
@@ -8174,13 +8196,13 @@
         <v>-73.733333000000002</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J226" s="1">
         <v>166</v>
@@ -8191,13 +8213,13 @@
     </row>
     <row r="227" spans="1:14" ht="16" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="J227" s="1">
         <v>11</v>
@@ -8208,13 +8230,13 @@
     </row>
     <row r="228" spans="1:14" ht="16" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="J228" s="1">
         <v>12</v>
@@ -8225,10 +8247,10 @@
     </row>
     <row r="229" spans="1:14" ht="16" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C229" s="6">
         <v>4.7</v>
@@ -8237,13 +8259,13 @@
         <v>-74.366667000000007</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="J229" s="1">
         <v>86</v>
@@ -8254,10 +8276,10 @@
     </row>
     <row r="230" spans="1:14" ht="16" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C230" s="1">
         <v>4.47</v>
@@ -8266,13 +8288,13 @@
         <v>-74.05</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J230" s="1">
         <v>81</v>
@@ -8281,7 +8303,7 @@
         <v>7</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M230" s="3"/>
       <c r="N230" s="1">
@@ -8290,10 +8312,10 @@
     </row>
     <row r="231" spans="1:14" ht="16" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C231" s="1">
         <v>1.816667</v>
@@ -8302,13 +8324,13 @@
         <v>-78.766666999999998</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J231" s="1">
         <v>28</v>
@@ -8317,7 +8339,7 @@
         <v>6</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M231" s="3"/>
       <c r="N231" s="1">
@@ -8326,10 +8348,10 @@
     </row>
     <row r="232" spans="1:14" ht="16" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C232" s="1">
         <v>10.333333</v>
@@ -8338,13 +8360,13 @@
         <v>-75.416667000000004</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J232" s="1">
         <v>133</v>
@@ -8355,13 +8377,13 @@
     </row>
     <row r="233" spans="1:14" ht="16" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J233" s="1">
         <v>1</v>
@@ -8372,10 +8394,10 @@
     </row>
     <row r="234" spans="1:14" ht="16" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C234" s="1">
         <v>1.9152659999999999</v>
@@ -8384,13 +8406,13 @@
         <v>-76.625303000000002</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J234" s="1">
         <v>63</v>
@@ -8399,7 +8421,7 @@
         <v>4</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M234" s="3"/>
       <c r="N234" s="1">
@@ -8408,13 +8430,13 @@
     </row>
     <row r="235" spans="1:14" ht="16" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L235" s="1"/>
       <c r="M235" s="3"/>
@@ -8422,13 +8444,13 @@
     </row>
     <row r="236" spans="1:14" ht="16" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="L236" s="1"/>
       <c r="M236" s="3"/>
@@ -8436,16 +8458,16 @@
     </row>
     <row r="237" spans="1:14" ht="16" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J237" s="1">
         <v>126</v>
@@ -8454,7 +8476,7 @@
         <v>8</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M237" s="3"/>
       <c r="N237" s="1">
@@ -8463,13 +8485,13 @@
     </row>
     <row r="238" spans="1:14" ht="16" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="J238" s="1">
         <v>109</v>
@@ -8483,7 +8505,7 @@
         <v>31</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C239" s="1">
         <v>4.1509879999999999</v>
@@ -8498,10 +8520,10 @@
         <v>32</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="J239" s="1">
         <v>164</v>

--- a/Gazetteer_Chapman_Colombia_Expeditions.xlsx
+++ b/Gazetteer_Chapman_Colombia_Expeditions.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glennseeholzer/Dropbox/Chapman/expediciornis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29436B1D-DAAA-E84E-B7A3-3FCE7D372EF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503229B7-572B-C445-82B8-F60380D04CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14840" yWindow="460" windowWidth="21480" windowHeight="17260" xr2:uid="{3D1F2814-41A2-A340-856E-49F90DDEFF78}"/>
+    <workbookView xWindow="8020" yWindow="460" windowWidth="21480" windowHeight="17260" xr2:uid="{3D1F2814-41A2-A340-856E-49F90DDEFF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$239</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="780">
   <si>
     <t>Lat</t>
   </si>
@@ -1509,9 +1509,6 @@
     <t>GoogleEarth by GFS.</t>
   </si>
   <si>
-    <t>Verbatim from Paynter-Colombia-Gazetteer, located very close to present day Guaduas. Chapman's description says that the snow covered peaks of the central Andes are visible from this locality, so likely on the first ridge before descending to Guaduas or, less likely, at some point east of Guaduas towards Bogota.</t>
-  </si>
-  <si>
     <t>Lat. 40 35', Long. 74 10'; 8750 ft.</t>
   </si>
   <si>
@@ -2133,9 +2130,6 @@
     <t>Not listed specifically in Paynter-Colombia-Gazetteer. Likely situated at 5000 ft (1520 m) and approximately 20 miles W of Honda. Coordinates from town of Fresno, which is ~20 miles W of Honda and at 1475 meters</t>
   </si>
   <si>
-    <t>Honda (W of)</t>
-  </si>
-  <si>
     <t>Rio Atrato</t>
   </si>
   <si>
@@ -2359,6 +2353,21 @@
   </si>
   <si>
     <t>Rio CaIon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacieda El Consuela was located by Andres Cuervo during the scouting trip to Honda. It is located along the Camino Real between Honda and Bogota on the first main ridge between Honda and Guaduas. </t>
+  </si>
+  <si>
+    <t>W of Honda</t>
+  </si>
+  <si>
+    <t>Valle de Cauca</t>
+  </si>
+  <si>
+    <t>MetaLocality</t>
+  </si>
+  <si>
+    <t>Laguneta-RioToche</t>
   </si>
 </sst>
 </file>
@@ -2728,5820 +2737,6100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45018DB7-FD06-AA47-AF78-742E5380DC40}">
-  <dimension ref="A1:N239"/>
+  <dimension ref="A1:O239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B211" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A239" sqref="A239"/>
+      <selection pane="bottomRight" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="65" style="1" customWidth="1"/>
-    <col min="9" max="9" width="59.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="16.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="49.33203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="49.33203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="20.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="65" style="1" customWidth="1"/>
+    <col min="10" max="10" width="59.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="16.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="49.33203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="49.33203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>770</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>496</v>
+        <v>768</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="J2" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="K2" s="1">
         <v>73</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="M2" s="1"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="J3" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>4.388401</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>-74.324594000000005</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>745</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="J4" s="1">
+        <v>743</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K4" s="1">
         <v>75</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>7</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="O4" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>4.7830719999999998</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>-76.173270000000002</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="J5" s="1">
+        <v>745</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K5" s="1">
         <v>45</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="N5" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="O5" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>9.3833330000000004</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>-74.75</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="J6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="K6" s="1">
         <v>127</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>7</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>1.916191</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>-76.851235000000003</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="J7" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="K7" s="1">
         <v>61</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>4</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="N7" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="O7" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="J8" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K8" s="1">
         <v>118</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="M8" s="1"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>7.061534</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>-76.430197000000007</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>450</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="J9" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="K9" s="1">
         <v>5</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>8</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="N9" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="O9" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>1.9106240000000001</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>-75.680143000000001</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>768</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="J10" s="1">
+        <v>766</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="K10" s="1">
         <v>67</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>5</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="N10" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="O10" s="1">
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="J11" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="K11" s="1">
         <v>36</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="M11" s="1"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>4.7617380000000002</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>-74.464726999999996</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="J12" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="K12" s="1">
         <v>85</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="1"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="J13" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="J14" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K14" s="1">
         <v>136</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="1"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="J15" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K15" s="1">
         <v>135</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="1"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="J16" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="K16" s="1">
         <v>155</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="M16" s="1"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>5.4123939999999999</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>-76.414856</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="J17" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="K17" s="1">
         <v>9</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="M17" s="1"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>9</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>-73.966667000000001</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="I18" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>1.6733150000000001</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>-78.138856000000004</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>20</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="J19" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K19" s="1">
         <v>29</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>6</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>491</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>130</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="M20" s="1"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>4.1666670000000003</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>-73.016666999999998</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="J21" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="K21" s="1">
         <v>169</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="M21" s="1"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>6.25</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>-75.383332999999993</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="J22" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="K22" s="1">
         <v>39</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>8</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="N22" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="O22" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>6</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>-77.083332999999996</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="J23" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>-74.016666999999998</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="J24" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="K24" s="1">
         <v>124</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>8</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="N24" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="O24" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>-74.083332999999996</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="G25" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="J25" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K25" s="1">
         <v>179</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>7</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="N25" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="O25" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="G26" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>141</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="M26" s="1"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="G27" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>108</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="M27" s="1"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>4.1663410000000001</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>-73.682625000000002</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>1370</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="J28" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="K28" s="1">
         <v>165</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>7</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="N28" s="1">
+      <c r="N28" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="O28" s="1">
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>3.8833329999999999</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>-77.066666999999995</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>19</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>1</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="N29" s="1">
+      <c r="N29" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="O29" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>1.4917260000000001</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>-78.077940999999996</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="J30" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="K30" s="1">
         <v>30</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>6</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="N30" s="1">
+      <c r="N30" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="O30" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="B31" s="1"/>
+      <c r="G31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="J31" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>10.250348000000001</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>-74.916503000000006</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <v>128</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="1">
+      <c r="N32" s="3"/>
+      <c r="O32" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>3.6581419999999998</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>-76.690770999999998</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="J33" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K33" s="1">
         <v>22</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="1">
         <v>1</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="N33" s="1">
+      <c r="M33" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="O33" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>3.451565</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>-76.532071999999999</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="J34" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K34" s="1">
         <v>53</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="1">
+      <c r="N34" s="3"/>
+      <c r="O34" s="1">
         <v>313</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="B35" s="1"/>
+      <c r="G35" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="J35" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="K35" s="1">
         <v>113</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="M35" s="1"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.7584500000000001</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-75.634394999999998</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.7584500000000001</v>
-      </c>
-      <c r="D36" s="1">
-        <v>-75.634394999999998</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="I36" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4.4166670000000003</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-73.95</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C37" s="1">
-        <v>4.4166670000000003</v>
-      </c>
-      <c r="D37" s="1">
-        <v>-73.95</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="D38" s="1">
+        <v>8.0833329999999997</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-73.849999999999994</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C38" s="1">
-        <v>8.0833329999999997</v>
-      </c>
-      <c r="D38" s="1">
-        <v>-73.849999999999994</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="M38" s="1"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="F39" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="G39" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="M39" s="1"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="B40" s="1"/>
+      <c r="G40" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="J40" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="K40" s="1">
         <v>125</v>
       </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="M40" s="1"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="B41" s="1"/>
+      <c r="G41" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="J41" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>2.5322629999999999</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>-76.949560000000005</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>2540</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="J42" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="K42" s="1">
         <v>57</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <v>2</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="1">
+      <c r="N42" s="3"/>
+      <c r="O42" s="1">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>4.2149169999999998</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>-74.981131000000005</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="J43" s="1">
+      <c r="J43" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="K43" s="1">
         <v>69</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="1">
         <v>3</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="1">
+      <c r="N43" s="3"/>
+      <c r="O43" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="B44" s="1"/>
+      <c r="G44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="J44" s="1">
+      <c r="J44" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="K44" s="1">
         <v>154</v>
       </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="M44" s="1"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>4.4430550000000002</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>-74.044987000000006</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <v>82</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>7</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="1">
+      <c r="N45" s="3"/>
+      <c r="O45" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="B46" s="1"/>
+      <c r="G46" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <v>149</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="M46" s="1"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>4.55</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>-73.966667000000001</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="J47" s="1">
+      <c r="J47" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K47" s="1">
         <v>83</v>
       </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" ht="16" customHeight="1">
+      <c r="M47" s="1"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" ht="16" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B48" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C48" s="1">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D48" s="1">
         <v>11.016667</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>-74.25</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L48" s="1"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" ht="16" customHeight="1">
+      <c r="M48" s="1"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" ht="16" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="B49" s="1"/>
+      <c r="G49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="J49" s="1">
+      <c r="J49" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="K49" s="1">
         <v>144</v>
       </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" ht="16" customHeight="1">
+      <c r="M49" s="1"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" ht="16" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>3.78274</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>-76.760142000000002</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>754</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="J50" s="1">
+        <v>752</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="K50" s="1">
         <v>21</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <v>1</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M50" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="N50" s="1">
+      <c r="N50" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="O50" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="16" customHeight="1">
+    <row r="51" spans="1:15" ht="16" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="B51" s="1"/>
+      <c r="G51" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="J51" s="1">
+      <c r="J51" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="K51" s="1">
         <v>153</v>
       </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" ht="16" customHeight="1">
+      <c r="M51" s="1"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" ht="16" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="1">
         <v>2.5155249999999998</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>-76.963571000000002</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K52" s="1">
         <v>58</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <v>2</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="1">
+      <c r="N52" s="3"/>
+      <c r="O52" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16" customHeight="1">
+    <row r="53" spans="1:15" ht="16" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>2.5166750000000002</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>-76.999987000000004</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>1225</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J53" s="1">
+      <c r="J53" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K53" s="1">
         <v>26</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="1">
         <v>2</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="1">
+      <c r="N53" s="3"/>
+      <c r="O53" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16" customHeight="1">
+    <row r="54" spans="1:15" ht="16" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="B54" s="1"/>
+      <c r="G54" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="J54" s="1">
+      <c r="J54" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="K54" s="1">
         <v>110</v>
       </c>
-      <c r="L54" s="1"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" ht="16" customHeight="1">
+      <c r="M54" s="1"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" ht="16" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="B55" s="1"/>
+      <c r="G55" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="L55" s="1"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" ht="16" customHeight="1">
+      <c r="J55" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" ht="16" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="B56" s="1"/>
+      <c r="J56" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" ht="16" customHeight="1">
+      <c r="M56" s="1"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" ht="16" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="B57" s="1"/>
+      <c r="G57" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="1">
         <v>43</v>
       </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" ht="16" customHeight="1">
+      <c r="M57" s="1"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" ht="16" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="B58" s="1"/>
+      <c r="G58" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="J58" s="1">
+      <c r="J58" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K58" s="1">
         <v>16</v>
       </c>
-      <c r="L58" s="1"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" ht="16" customHeight="1">
+      <c r="M58" s="1"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" ht="16" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="B59" s="1"/>
+      <c r="G59" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="J59" s="1">
+      <c r="J59" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="K59" s="1">
         <v>159</v>
       </c>
-      <c r="L59" s="1"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" ht="16" customHeight="1">
+      <c r="M59" s="1"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" ht="16" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C60" s="1">
+      <c r="D60" s="1">
         <v>7.0009620000000004</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="1">
         <v>-76.265512999999999</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="J60" s="1">
+      <c r="J60" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="K60" s="1">
         <v>6</v>
       </c>
-      <c r="L60" s="1"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:14" ht="16" customHeight="1">
+      <c r="M60" s="1"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" ht="16" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="B61" s="1"/>
+      <c r="G61" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" ht="16" customHeight="1">
+      <c r="J61" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="M61" s="1"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" ht="16" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="B62" s="1"/>
+      <c r="G62" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="J62" s="1">
+      <c r="J62" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="K62" s="1">
         <v>93</v>
       </c>
-      <c r="L62" s="1"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" ht="16" customHeight="1">
+      <c r="M62" s="1"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" ht="16" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="B63" s="1"/>
+      <c r="G63" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L63" s="1"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" ht="16" customHeight="1">
+      <c r="J63" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="M63" s="1"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" ht="16" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="F64" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="G64" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="J64" s="1">
+      <c r="J64" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="K64" s="1">
         <v>95</v>
       </c>
-      <c r="L64" s="1"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" ht="16" customHeight="1">
+      <c r="M64" s="1"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" ht="16" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C65" s="1">
-        <v>5.0666669999999998</v>
-      </c>
-      <c r="D65" s="1">
-        <v>-74.599999999999994</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="D65" s="7">
+        <v>5.1101729999999996</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-74.639945999999995</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="J65" s="1">
+      <c r="H65" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K65" s="1">
         <v>97</v>
       </c>
-      <c r="K65" s="1">
+      <c r="L65" s="1">
         <v>7</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M65" s="3"/>
-      <c r="N65" s="1">
+      <c r="N65" s="3"/>
+      <c r="O65" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="16" customHeight="1">
+    <row r="66" spans="1:15" ht="16" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="1">
         <v>4.5</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="1">
         <v>-75.333332999999996</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="J66" s="1">
+      <c r="J66" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="K66" s="1">
         <v>71</v>
       </c>
-      <c r="K66" s="1">
+      <c r="L66" s="1">
         <v>3</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M66" s="3"/>
-      <c r="N66" s="1">
+      <c r="N66" s="3"/>
+      <c r="O66" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="16" customHeight="1">
+    <row r="67" spans="1:15" ht="16" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="B67" s="1"/>
+      <c r="G67" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="J67" s="1">
+      <c r="J67" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="K67" s="1">
         <v>160</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="L67" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L67" s="1"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="1:14" ht="16" customHeight="1">
+      <c r="M67" s="1"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" ht="16" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="B68" s="1"/>
+      <c r="G68" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="L68" s="1"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" ht="16" customHeight="1">
+      <c r="J68" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" ht="16" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="B69" s="1"/>
+      <c r="G69" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="J69" s="1">
+      <c r="J69" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="K69" s="1">
         <v>156</v>
       </c>
-      <c r="L69" s="1"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="1:14" ht="16" customHeight="1">
+      <c r="M69" s="1"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" ht="16" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="B70" s="1"/>
+      <c r="G70" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="L70" s="1"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="1:14" ht="16" customHeight="1">
+      <c r="J70" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="M70" s="1"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" ht="16" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="1">
         <v>4.4257520000000001</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="1">
         <v>-74.293205</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="J71" s="1">
+      <c r="J71" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K71" s="1">
         <v>77</v>
       </c>
-      <c r="K71" s="1">
+      <c r="L71" s="1">
         <v>7</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M71" s="3"/>
-      <c r="N71" s="1">
+      <c r="N71" s="3"/>
+      <c r="O71" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16" customHeight="1">
+    <row r="72" spans="1:15" ht="16" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C72" s="1">
+      <c r="D72" s="1">
         <v>4.4149640000000003</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="1">
         <v>-74.302553000000003</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>2468</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="J72" s="1">
+      <c r="H72" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="K72" s="1">
         <v>76</v>
       </c>
-      <c r="K72" s="1">
+      <c r="L72" s="1">
         <v>7</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M72" s="3"/>
-      <c r="N72" s="1">
+      <c r="N72" s="3"/>
+      <c r="O72" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16" customHeight="1">
+    <row r="73" spans="1:15" ht="16" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="B73" s="1"/>
+      <c r="G73" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="L73" s="1"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="1:14" ht="16" customHeight="1">
+      <c r="J73" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="M73" s="1"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" ht="16" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="B74" s="1"/>
+      <c r="G74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="L74" s="1"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="1:14" ht="16" customHeight="1">
+      <c r="J74" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="M74" s="1"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" ht="16" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="B75" s="1"/>
+      <c r="G75" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="J75" s="1">
+      <c r="J75" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="K75" s="1">
         <v>41</v>
       </c>
-      <c r="L75" s="1"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="1:14" ht="16" customHeight="1">
+      <c r="M75" s="1"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" ht="16" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B76" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1">
         <v>4.8166669999999998</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <v>-74.366667000000007</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L76" s="1"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="1:14" ht="16" customHeight="1">
+      <c r="M76" s="1"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" ht="16" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B77" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C77" s="7">
+      <c r="D77" s="7">
         <v>4.6666040000000004</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E77" s="1">
         <v>-75.633341999999999</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="L77" s="1"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="1:14" ht="16" customHeight="1">
+      <c r="I77" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="M77" s="1"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" ht="16" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>1.6157049999999999</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>-75.613596000000001</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>200</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="J78" s="1">
+      <c r="J78" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K78" s="1">
         <v>171</v>
       </c>
-      <c r="K78" s="1">
+      <c r="L78" s="1">
         <v>5</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M78" s="3"/>
-      <c r="N78" s="1">
+      <c r="N78" s="3"/>
+      <c r="O78" s="1">
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="16" customHeight="1">
+    <row r="79" spans="1:15" ht="16" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C79" s="6">
+      <c r="D79" s="6">
         <v>3.3238259999999999</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
         <v>-76.234682000000006</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="L79" s="1"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="1:14" ht="16" customHeight="1">
+      <c r="M79" s="1"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" ht="16" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="B80" s="1"/>
+      <c r="G80" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="J80" s="1">
+      <c r="J80" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="K80" s="1">
         <v>84</v>
       </c>
-      <c r="L80" s="1"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="1:14" ht="16" customHeight="1">
+      <c r="M80" s="1"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" ht="16" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="B81" s="1"/>
+      <c r="G81" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="J81" s="1">
+      <c r="J81" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="K81" s="1">
         <v>7</v>
       </c>
-      <c r="L81" s="1"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="1:14" ht="16" customHeight="1">
+      <c r="M81" s="1"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="1:15" ht="16" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C82" s="6">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D82" s="6">
         <v>10.516667</v>
       </c>
-      <c r="D82" s="1">
+      <c r="E82" s="1">
         <v>-74.183333000000005</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="L82" s="1"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="1:14" ht="16" customHeight="1">
+      <c r="J82" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="M82" s="1"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="1:15" ht="16" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C83" s="1">
+      <c r="D83" s="1">
         <v>4.3499999999999996</v>
       </c>
-      <c r="D83" s="1">
+      <c r="E83" s="1">
         <v>-74.366667000000007</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="J83" s="1">
+      <c r="J83" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K83" s="1">
         <v>74</v>
       </c>
-      <c r="K83" s="1">
+      <c r="L83" s="1">
         <v>7</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M83" s="3"/>
-      <c r="N83" s="1">
+      <c r="N83" s="3"/>
+      <c r="O83" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="16" customHeight="1">
+    <row r="84" spans="1:15" ht="16" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C84" s="1">
+      <c r="D84" s="1">
         <v>2.5379450000000001</v>
       </c>
-      <c r="D84" s="1">
+      <c r="E84" s="1">
         <v>-76.997828999999996</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J84" s="1">
+      <c r="J84" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="K84" s="1">
         <v>25</v>
       </c>
-      <c r="K84" s="1">
+      <c r="L84" s="1">
         <v>2</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M84" s="3"/>
-      <c r="N84" s="1">
+      <c r="N84" s="3"/>
+      <c r="O84" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="16" customHeight="1">
+    <row r="85" spans="1:15" ht="16" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C85" s="1">
+      <c r="D85" s="1">
         <v>2.9691360000000002</v>
       </c>
-      <c r="D85" s="1">
+      <c r="E85" s="1">
         <v>-78.182655999999994</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J85" s="1">
+      <c r="K85" s="1">
         <v>27</v>
       </c>
-      <c r="L85" s="1"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="1:14" ht="16" customHeight="1">
+      <c r="M85" s="1"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" ht="16" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="B86" s="1"/>
+      <c r="G86" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="J86" s="1">
+      <c r="J86" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="K86" s="1">
         <v>96</v>
       </c>
-      <c r="L86" s="1"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="1:14" ht="16" customHeight="1">
+      <c r="M86" s="1"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" ht="16" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C87" s="1">
+      <c r="D87" s="1">
         <v>3.233333</v>
       </c>
-      <c r="D87" s="1">
+      <c r="E87" s="1">
         <v>-76.349999999999994</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="J87" s="1">
+      <c r="J87" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="K87" s="1">
         <v>55</v>
       </c>
-      <c r="K87" s="1">
+      <c r="L87" s="1">
         <v>1</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M87" s="3"/>
-      <c r="N87" s="1">
+      <c r="N87" s="3"/>
+      <c r="O87" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="16" customHeight="1">
+    <row r="88" spans="1:15" ht="16" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="B88" s="1"/>
+      <c r="G88" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="J88" s="1">
+      <c r="J88" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="K88" s="1">
         <v>116</v>
       </c>
-      <c r="L88" s="1"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="1:14" ht="16" customHeight="1">
+      <c r="M88" s="1"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="1:15" ht="16" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C89" s="1">
+      <c r="D89" s="1">
         <v>5.2047059999999998</v>
       </c>
-      <c r="D89" s="1">
+      <c r="E89" s="1">
         <v>-74.736840000000001</v>
       </c>
-      <c r="E89" s="1">
+      <c r="F89" s="1">
         <v>200</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J89" s="1">
+      <c r="J89" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="K89" s="1">
         <v>98</v>
       </c>
-      <c r="K89" s="1">
+      <c r="L89" s="1">
         <v>7</v>
       </c>
-      <c r="L89" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="M89" s="3"/>
-      <c r="N89" s="1">
+      <c r="M89" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="N89" s="3"/>
+      <c r="O89" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="16" customHeight="1">
+    <row r="90" spans="1:15" ht="16" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B90" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C90" s="1">
+      <c r="D90" s="1">
         <v>5.1534769999999996</v>
       </c>
-      <c r="D90" s="1">
+      <c r="E90" s="1">
         <v>-75.037125000000003</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>700</v>
-      </c>
       <c r="H90" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="L90" s="1"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="1:14" ht="16" customHeight="1">
+        <v>699</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="M90" s="1"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="1:15" ht="16" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="J91" s="1">
+      <c r="J91" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="K91" s="1">
         <v>70</v>
       </c>
-      <c r="L91" s="1"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="1"/>
-    </row>
-    <row r="92" spans="1:14" ht="16" customHeight="1">
+      <c r="M91" s="1"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="1:15" ht="16" customHeight="1">
       <c r="A92" t="s">
-        <v>774</v>
-      </c>
-      <c r="B92" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B92"/>
+      <c r="C92" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C92" s="1">
+      <c r="D92" s="1">
         <v>4.1833330000000002</v>
       </c>
-      <c r="D92" s="1">
+      <c r="E92" s="1">
         <v>-74.533332999999999</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L92" s="1"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="1:14" ht="16" customHeight="1">
+      <c r="M92" s="1"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" ht="16" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="B93" s="1"/>
+      <c r="G93" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="J93" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L93" s="1"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="1"/>
-    </row>
-    <row r="94" spans="1:14" ht="16" customHeight="1">
+      <c r="M93" s="1"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="1:15" ht="16" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="B94" s="1"/>
+      <c r="G94" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="J94" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="J94" s="1">
+      <c r="K94" s="1">
         <v>54</v>
       </c>
-      <c r="L94" s="1"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="1"/>
-    </row>
-    <row r="95" spans="1:14" ht="16" customHeight="1">
+      <c r="M94" s="1"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="1:15" ht="16" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="B95" s="1"/>
+      <c r="G95" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="L95" s="1"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="1"/>
-    </row>
-    <row r="96" spans="1:14" ht="16" customHeight="1">
+      <c r="J95" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="M95" s="1"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="1"/>
+    </row>
+    <row r="96" spans="1:15" ht="16" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C96" s="1">
+      <c r="D96" s="1">
         <v>4.983333</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E96" s="1">
         <v>-76.400000000000006</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="J96" s="1">
+      <c r="J96" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="K96" s="1">
         <v>14</v>
       </c>
-      <c r="K96" s="1">
+      <c r="L96" s="1">
         <v>3</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M96" s="3"/>
-      <c r="N96" s="1">
+      <c r="N96" s="3"/>
+      <c r="O96" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="16" customHeight="1">
+    <row r="97" spans="1:15" ht="16" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C97" s="1">
+      <c r="D97" s="1">
         <v>1.8332999999999999</v>
       </c>
-      <c r="D97" s="1">
+      <c r="E97" s="1">
         <v>-76.332999999999998</v>
       </c>
-      <c r="E97" s="1">
+      <c r="F97" s="1">
         <v>1980</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="J97" s="1">
+      <c r="J97" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="K97" s="1">
         <v>65</v>
       </c>
-      <c r="K97" s="1">
+      <c r="L97" s="1">
         <v>5</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M97" s="3"/>
-      <c r="N97" s="1">
+      <c r="N97" s="3"/>
+      <c r="O97" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="16" customHeight="1">
+    <row r="98" spans="1:15" ht="16" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="B98" s="1"/>
+      <c r="G98" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="L98" s="1"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="1:14" ht="16" customHeight="1">
+      <c r="J98" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="M98" s="1"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="1"/>
+    </row>
+    <row r="99" spans="1:15" ht="16" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="B99" s="1"/>
+      <c r="G99" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="J99" s="1">
+      <c r="J99" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="K99" s="1">
         <v>115</v>
       </c>
-      <c r="L99" s="1"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="1"/>
-    </row>
-    <row r="100" spans="1:14" ht="16" customHeight="1">
+      <c r="M99" s="1"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="1"/>
+    </row>
+    <row r="100" spans="1:15" ht="16" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="B100" s="1"/>
+      <c r="G100" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="J100" s="1">
+      <c r="J100" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="K100" s="1">
         <v>99</v>
       </c>
-      <c r="L100" s="1"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="1:14" ht="16" customHeight="1">
+      <c r="M100" s="1"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="1"/>
+    </row>
+    <row r="101" spans="1:15" ht="16" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C101" s="1">
+      <c r="D101" s="1">
         <v>2.5833330000000001</v>
       </c>
-      <c r="D101" s="1">
+      <c r="E101" s="1">
         <v>-76.916667000000004</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="K101" s="1">
+      <c r="J101" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="L101" s="1">
         <v>2</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="M101" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M101" s="3"/>
-      <c r="N101" s="1">
+      <c r="N101" s="3"/>
+      <c r="O101" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="16" customHeight="1">
+    <row r="102" spans="1:15" ht="16" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C102" s="1">
+      <c r="D102" s="1">
         <v>7.166722</v>
       </c>
-      <c r="D102" s="1">
+      <c r="E102" s="1">
         <v>-75.416600000000003</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="J102" s="1">
+      <c r="J102" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="K102" s="1">
         <v>34</v>
       </c>
-      <c r="K102" s="1">
+      <c r="L102" s="1">
         <v>8</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="M102" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M102" s="3"/>
-      <c r="N102" s="1">
+      <c r="N102" s="3"/>
+      <c r="O102" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="16" customHeight="1">
+    <row r="103" spans="1:15" ht="16" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="F103" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="G103" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="J103" s="1">
+      <c r="J103" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="K103" s="1">
         <v>78</v>
       </c>
-      <c r="L103" s="1"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="1:14" ht="16" customHeight="1">
+      <c r="M103" s="1"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="1"/>
+    </row>
+    <row r="104" spans="1:15" ht="16" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C104" s="6">
+      <c r="D104" s="6">
         <v>4.7</v>
       </c>
-      <c r="D104" s="1">
+      <c r="E104" s="1">
         <v>-74.25</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="J104" s="1">
+      <c r="J104" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="K104" s="1">
         <v>88</v>
       </c>
-      <c r="L104" s="1"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="1:14" ht="16" customHeight="1">
+      <c r="M104" s="1"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="1"/>
+    </row>
+    <row r="105" spans="1:15" ht="16" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C105" s="1">
+      <c r="D105" s="1">
         <v>3.5832769999999998</v>
       </c>
-      <c r="D105" s="1">
+      <c r="E105" s="1">
         <v>-76.283311999999995</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="J105" s="1">
+      <c r="J105" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K105" s="1">
         <v>51</v>
       </c>
-      <c r="K105" s="1">
+      <c r="L105" s="1">
         <v>1</v>
       </c>
-      <c r="L105" s="1" t="s">
+      <c r="M105" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M105" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="N105" s="1">
+      <c r="N105" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="O105" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="16" customHeight="1">
+    <row r="106" spans="1:15" ht="16" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="B106" s="1"/>
+      <c r="G106" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="L106" s="1"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="1:14" ht="16" customHeight="1">
+      <c r="J106" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="M106" s="1"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="1"/>
+    </row>
+    <row r="107" spans="1:15" ht="16" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="B107" s="1"/>
+      <c r="G107" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="L107" s="1"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="1"/>
-    </row>
-    <row r="108" spans="1:14" ht="16" customHeight="1">
+      <c r="J107" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="M107" s="1"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="1"/>
+    </row>
+    <row r="108" spans="1:15" ht="16" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C108" s="1">
+      <c r="D108" s="1">
         <v>1.4877689999999999</v>
       </c>
-      <c r="D108" s="1">
+      <c r="E108" s="1">
         <v>-75.725921999999997</v>
       </c>
-      <c r="E108" s="1">
+      <c r="F108" s="1">
         <v>180</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>673</v>
-      </c>
       <c r="H108" s="1" t="s">
-        <v>756</v>
+        <v>672</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="J108" s="1">
+        <v>754</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="K108" s="1">
         <v>172</v>
       </c>
-      <c r="K108" s="1">
+      <c r="L108" s="1">
         <v>5</v>
       </c>
-      <c r="L108" s="1" t="s">
+      <c r="M108" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M108" s="3"/>
-      <c r="N108" s="1">
+      <c r="N108" s="3"/>
+      <c r="O108" s="1">
         <v>415</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="16" customHeight="1">
+    <row r="109" spans="1:15" ht="16" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="J109" s="1">
+      <c r="J109" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="K109" s="1">
         <v>64</v>
       </c>
-      <c r="K109" s="1">
+      <c r="L109" s="1">
         <v>5</v>
       </c>
-      <c r="L109" s="1" t="s">
+      <c r="M109" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M109" s="3"/>
-      <c r="N109" s="1">
+      <c r="N109" s="3"/>
+      <c r="O109" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="16" customHeight="1">
+    <row r="110" spans="1:15" ht="16" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="B110" s="1"/>
+      <c r="G110" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="J110" s="1">
+      <c r="J110" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="K110" s="1">
         <v>89</v>
       </c>
-      <c r="L110" s="1"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="1:14" ht="16" customHeight="1">
+      <c r="M110" s="1"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="1"/>
+    </row>
+    <row r="111" spans="1:15" ht="16" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C111" s="1">
+      <c r="D111" s="1">
         <v>11.033333000000001</v>
       </c>
-      <c r="D111" s="1">
+      <c r="E111" s="1">
         <v>-74.866667000000007</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="J111" s="1">
+      <c r="J111" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="K111" s="1">
         <v>131</v>
       </c>
-      <c r="K111" s="1">
+      <c r="L111" s="1">
         <v>8</v>
       </c>
-      <c r="L111" s="1" t="s">
+      <c r="M111" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M111" s="3"/>
-      <c r="N111" s="1">
+      <c r="N111" s="3"/>
+      <c r="O111" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="16" customHeight="1">
+    <row r="112" spans="1:15" ht="16" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="J112" s="1">
+      <c r="H112" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="K112" s="1">
         <v>94</v>
       </c>
-      <c r="L112" s="1"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="1:14" ht="16" customHeight="1">
+      <c r="M112" s="1"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="1"/>
+    </row>
+    <row r="113" spans="1:15" ht="16" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C113" s="6">
+      <c r="D113" s="6">
         <v>5</v>
       </c>
-      <c r="D113" s="1">
+      <c r="E113" s="1">
         <v>-74.133332999999993</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="J113" s="1">
+      <c r="J113" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="K113" s="1">
         <v>92</v>
       </c>
-      <c r="L113" s="1"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="1:14" ht="16" customHeight="1">
+      <c r="M113" s="1"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="1"/>
+    </row>
+    <row r="114" spans="1:15" ht="16" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="B114" s="1"/>
+      <c r="G114" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="L114" s="1"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="1:14" ht="16" customHeight="1">
+      <c r="J114" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="M114" s="1"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="1"/>
+    </row>
+    <row r="115" spans="1:15" ht="16" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C115" s="1">
+      <c r="D115" s="1">
         <v>2.1785369999999999</v>
       </c>
-      <c r="D115" s="1">
+      <c r="E115" s="1">
         <v>-76.763375999999994</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J115" s="1">
+      <c r="J115" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="K115" s="1">
         <v>59</v>
       </c>
-      <c r="K115" s="1">
+      <c r="L115" s="1">
         <v>4</v>
       </c>
-      <c r="L115" s="1" t="s">
+      <c r="M115" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M115" s="3"/>
-      <c r="N115" s="1">
+      <c r="N115" s="3"/>
+      <c r="O115" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="16" customHeight="1">
+    <row r="116" spans="1:15" ht="16" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="B116" s="1"/>
+      <c r="G116" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I116" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="L116" s="1"/>
-      <c r="M116" s="3"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="1:14" ht="16" customHeight="1">
+      <c r="J116" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="M116" s="1"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="1"/>
+    </row>
+    <row r="117" spans="1:15" ht="16" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C117" s="6">
+        <v>726</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D117" s="6">
         <v>11.166667</v>
       </c>
-      <c r="D117" s="1">
+      <c r="E117" s="1">
         <v>-74.150000000000006</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L117" s="1"/>
-      <c r="M117" s="3"/>
-      <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="1:14" ht="16" customHeight="1">
+      <c r="M117" s="1"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="1"/>
+    </row>
+    <row r="118" spans="1:15" ht="16" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C118" s="1">
+      <c r="D118" s="1">
         <v>5.4</v>
       </c>
-      <c r="D118" s="1">
+      <c r="E118" s="1">
         <v>-76.383332999999993</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="L118" s="1"/>
-      <c r="M118" s="3"/>
-      <c r="N118" s="1"/>
-    </row>
-    <row r="119" spans="1:14" ht="16" customHeight="1">
+      <c r="J118" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="M118" s="1"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="1"/>
+    </row>
+    <row r="119" spans="1:15" ht="16" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C119" s="1">
+      <c r="D119" s="1">
         <v>4.5885699999999998</v>
       </c>
-      <c r="D119" s="1">
+      <c r="E119" s="1">
         <v>-75.530410000000003</v>
       </c>
-      <c r="E119" s="1">
+      <c r="F119" s="1">
         <v>3000</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="J119" s="1">
+      <c r="J119" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K119" s="1">
         <v>47</v>
       </c>
-      <c r="K119" s="1">
+      <c r="L119" s="1">
         <v>2</v>
       </c>
-      <c r="L119" s="1" t="s">
+      <c r="M119" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M119" s="3"/>
-      <c r="N119" s="1">
+      <c r="N119" s="3"/>
+      <c r="O119" s="1">
         <v>349</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16" customHeight="1">
+    <row r="120" spans="1:15" ht="16" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="B120" s="1"/>
+      <c r="G120" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="L120" s="1"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="1:14" ht="16" customHeight="1">
+      <c r="J120" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M120" s="1"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="1"/>
+    </row>
+    <row r="121" spans="1:15" ht="16" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="B121" s="1"/>
+      <c r="G121" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="L121" s="1"/>
-      <c r="M121" s="3"/>
-      <c r="N121" s="1"/>
-    </row>
-    <row r="122" spans="1:14" ht="16" customHeight="1">
+      <c r="J121" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="M121" s="1"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="1"/>
+    </row>
+    <row r="122" spans="1:15" ht="16" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C122" s="1">
+      <c r="D122" s="1">
         <v>3.6363289999999999</v>
       </c>
-      <c r="D122" s="1">
+      <c r="E122" s="1">
         <v>-76.640497999999994</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>758</v>
-      </c>
       <c r="I122" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="J122" s="1">
+        <v>756</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K122" s="1">
         <v>24</v>
       </c>
-      <c r="K122" s="1">
+      <c r="L122" s="1">
         <v>1</v>
       </c>
-      <c r="L122" s="1" t="s">
+      <c r="M122" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M122" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="N122" s="1">
+      <c r="N122" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="O122" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="16" customHeight="1">
+    <row r="123" spans="1:15" ht="16" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="B123" s="1"/>
+      <c r="G123" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="L123" s="1"/>
-      <c r="M123" s="3"/>
-      <c r="N123" s="1"/>
-    </row>
-    <row r="124" spans="1:14" ht="16" customHeight="1">
+      <c r="J123" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="M123" s="1"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="1"/>
+    </row>
+    <row r="124" spans="1:15" ht="16" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="L124" s="1"/>
-      <c r="M124" s="3"/>
-      <c r="N124" s="1"/>
-    </row>
-    <row r="125" spans="1:14" ht="16" customHeight="1">
+        <v>707</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="H124" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="M124" s="1"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="1"/>
+    </row>
+    <row r="125" spans="1:15" ht="16" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="B125" s="1"/>
+      <c r="G125" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="L125" s="1"/>
-      <c r="M125" s="3"/>
-      <c r="N125" s="1"/>
-    </row>
-    <row r="126" spans="1:14" ht="16" customHeight="1">
+      <c r="J125" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="M125" s="1"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="1"/>
+    </row>
+    <row r="126" spans="1:15" ht="16" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B126" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C126" s="6">
+      <c r="D126" s="6">
         <v>9.233333</v>
       </c>
-      <c r="D126" s="1">
+      <c r="E126" s="1">
         <v>-74.75</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L126" s="1"/>
-      <c r="M126" s="3"/>
-      <c r="N126" s="1"/>
-    </row>
-    <row r="127" spans="1:14" ht="16" customHeight="1">
+      <c r="M126" s="1"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="1"/>
+    </row>
+    <row r="127" spans="1:15" ht="16" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C127" s="1">
+      <c r="D127" s="1">
         <v>6.450367</v>
       </c>
-      <c r="D127" s="1">
+      <c r="E127" s="1">
         <v>-74.499759999999995</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="J127" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="K127" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K127" s="1">
+      <c r="L127" s="1">
         <v>8</v>
       </c>
-      <c r="L127" s="1" t="s">
+      <c r="M127" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M127" s="3"/>
-      <c r="N127" s="1">
+      <c r="N127" s="3"/>
+      <c r="O127" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="16" customHeight="1">
+    <row r="128" spans="1:15" ht="16" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="B128" s="1"/>
+      <c r="G128" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="L128" s="1"/>
-      <c r="M128" s="3"/>
-      <c r="N128" s="1"/>
-    </row>
-    <row r="129" spans="1:14" ht="16" customHeight="1">
+      <c r="J128" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="M128" s="1"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="1"/>
+    </row>
+    <row r="129" spans="1:15" ht="16" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="B129" s="1"/>
+      <c r="G129" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="J129" s="1">
+      <c r="J129" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="K129" s="1">
         <v>158</v>
       </c>
-      <c r="L129" s="1"/>
-      <c r="M129" s="3"/>
-      <c r="N129" s="1"/>
-    </row>
-    <row r="130" spans="1:14" ht="16" customHeight="1">
+      <c r="M129" s="1"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="1"/>
+    </row>
+    <row r="130" spans="1:15" ht="16" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="B130" s="1"/>
+      <c r="G130" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I130" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="J130" s="1">
+      <c r="J130" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K130" s="1">
         <v>142</v>
       </c>
-      <c r="L130" s="1"/>
-      <c r="M130" s="3"/>
-      <c r="N130" s="1"/>
-    </row>
-    <row r="131" spans="1:14" ht="16" customHeight="1">
+      <c r="M130" s="1"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="1"/>
+    </row>
+    <row r="131" spans="1:15" ht="16" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="B131" s="1"/>
+      <c r="G131" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I131" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="J131" s="1">
+      <c r="J131" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="K131" s="1">
         <v>163</v>
       </c>
-      <c r="L131" s="1"/>
-      <c r="M131" s="3"/>
-      <c r="N131" s="1"/>
-    </row>
-    <row r="132" spans="1:14" ht="16" customHeight="1">
+      <c r="M131" s="1"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="1"/>
+    </row>
+    <row r="132" spans="1:15" ht="16" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C132" s="6">
+      <c r="D132" s="6">
         <v>6.25</v>
       </c>
-      <c r="D132" s="1">
+      <c r="E132" s="1">
         <v>-75.583332999999996</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="H132" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I132" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="J132" s="1">
+      <c r="J132" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="K132" s="1">
         <v>37</v>
       </c>
-      <c r="L132" s="1"/>
-      <c r="M132" s="3"/>
-      <c r="N132" s="1"/>
-    </row>
-    <row r="133" spans="1:14" ht="16" customHeight="1">
+      <c r="M132" s="1"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="1"/>
+    </row>
+    <row r="133" spans="1:15" ht="16" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="B133" s="1"/>
+      <c r="G133" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I133" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="J133" s="1">
+      <c r="J133" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="K133" s="1">
         <v>140</v>
       </c>
-      <c r="L133" s="1"/>
-      <c r="M133" s="3"/>
-      <c r="N133" s="1"/>
-    </row>
-    <row r="134" spans="1:14" ht="16" customHeight="1">
+      <c r="M133" s="1"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="1"/>
+    </row>
+    <row r="134" spans="1:15" ht="16" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C134" s="1">
+      <c r="D134" s="1">
         <v>3.5832999999999999</v>
       </c>
-      <c r="D134" s="1">
+      <c r="E134" s="1">
         <v>-76.166700000000006</v>
       </c>
-      <c r="E134" s="1">
+      <c r="F134" s="1">
         <v>2100</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>760</v>
-      </c>
       <c r="I134" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="J134" s="1">
+        <v>758</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K134" s="1">
         <v>52</v>
       </c>
-      <c r="K134" s="1">
+      <c r="L134" s="1">
         <v>1</v>
       </c>
-      <c r="L134" s="1" t="s">
+      <c r="M134" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M134" s="3"/>
-      <c r="N134" s="1">
+      <c r="N134" s="3"/>
+      <c r="O134" s="1">
         <v>456</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="16" customHeight="1">
+    <row r="135" spans="1:15" ht="16" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="B135" s="1"/>
+      <c r="G135" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I135" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="L135" s="1"/>
-      <c r="M135" s="3"/>
-      <c r="N135" s="1"/>
-    </row>
-    <row r="136" spans="1:14" ht="16" customHeight="1">
+      <c r="J135" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="M135" s="1"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="1"/>
+    </row>
+    <row r="136" spans="1:15" ht="16" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C136" s="1">
+      <c r="D136" s="1">
         <v>4.2545039999999998</v>
       </c>
-      <c r="D136" s="1">
+      <c r="E136" s="1">
         <v>-73.826910999999996</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="H136" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I136" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="J136" s="1">
+      <c r="J136" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K136" s="1">
         <v>167</v>
       </c>
-      <c r="K136" s="1">
+      <c r="L136" s="1">
         <v>7</v>
       </c>
-      <c r="L136" s="1" t="s">
+      <c r="M136" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M136" s="3"/>
-      <c r="N136" s="1">
+      <c r="N136" s="3"/>
+      <c r="O136" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="16" customHeight="1">
+    <row r="137" spans="1:15" ht="16" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="C137" s="6">
+        <v>712</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D137" s="6">
         <v>5.5333329999999998</v>
       </c>
-      <c r="D137" s="1">
+      <c r="E137" s="1">
         <v>-74.099999999999994</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="H137" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L137" s="1"/>
-      <c r="M137" s="3"/>
-      <c r="N137" s="1"/>
-    </row>
-    <row r="138" spans="1:14" ht="16" customHeight="1">
+      <c r="M137" s="1"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="1"/>
+    </row>
+    <row r="138" spans="1:15" ht="16" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="B138" s="1"/>
+      <c r="G138" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="I138" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="L138" s="1"/>
-      <c r="M138" s="3"/>
-      <c r="N138" s="1"/>
-    </row>
-    <row r="139" spans="1:14" ht="16" customHeight="1">
+      <c r="J138" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="M138" s="1"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="1"/>
+    </row>
+    <row r="139" spans="1:15" ht="16" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="B139" s="1"/>
+      <c r="G139" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I139" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="J139" s="1">
+      <c r="J139" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="K139" s="1">
         <v>106</v>
       </c>
-      <c r="L139" s="1"/>
-      <c r="M139" s="3"/>
-      <c r="N139" s="1"/>
-    </row>
-    <row r="140" spans="1:14" ht="16" customHeight="1">
+      <c r="M139" s="1"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="1"/>
+    </row>
+    <row r="140" spans="1:15" ht="16" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="B140" s="1"/>
+      <c r="G140" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I140" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L140" s="1"/>
-      <c r="M140" s="3"/>
-      <c r="N140" s="1"/>
-    </row>
-    <row r="141" spans="1:14" ht="16" customHeight="1">
+      <c r="J140" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="M140" s="1"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="1"/>
+    </row>
+    <row r="141" spans="1:15" ht="16" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C141" s="1">
+      <c r="D141" s="1">
         <v>6.1859679999999999</v>
       </c>
-      <c r="D141" s="1">
+      <c r="E141" s="1">
         <v>-74.583400999999995</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="G141" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="H141" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I141" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="J141" s="1">
+      <c r="J141" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K141" s="1">
         <v>100</v>
       </c>
-      <c r="K141" s="1">
+      <c r="L141" s="1">
         <v>7</v>
       </c>
-      <c r="L141" s="1" t="s">
+      <c r="M141" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M141" s="3"/>
-      <c r="N141" s="1">
+      <c r="N141" s="3"/>
+      <c r="O141" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="16" customHeight="1">
+    <row r="142" spans="1:15" ht="16" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="B142" s="1"/>
+      <c r="G142" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I142" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="L142" s="1"/>
-      <c r="M142" s="3"/>
-      <c r="N142" s="1"/>
-    </row>
-    <row r="143" spans="1:14" ht="16" customHeight="1">
+      <c r="J142" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="M142" s="1"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="1"/>
+    </row>
+    <row r="143" spans="1:15" ht="16" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C143" s="1">
+      <c r="D143" s="1">
         <v>4.7</v>
       </c>
-      <c r="D143" s="1">
+      <c r="E143" s="1">
         <v>-76.933333000000005</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="H143" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I143" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="J143" s="1">
+      <c r="J143" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="K143" s="1">
         <v>17</v>
       </c>
-      <c r="K143" s="1">
+      <c r="L143" s="1">
         <v>3</v>
       </c>
-      <c r="L143" s="1" t="s">
+      <c r="M143" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M143" s="3"/>
-      <c r="N143" s="1">
+      <c r="N143" s="3"/>
+      <c r="O143" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="16" customHeight="1">
+    <row r="144" spans="1:15" ht="16" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C144" s="1">
+      <c r="D144" s="1">
         <v>4.955959</v>
       </c>
-      <c r="D144" s="1">
+      <c r="E144" s="1">
         <v>-76.607293999999996</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="G144" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="H144" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I144" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J144" s="1">
+      <c r="J144" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="K144" s="1">
         <v>15</v>
       </c>
-      <c r="K144" s="1">
+      <c r="L144" s="1">
         <v>3</v>
       </c>
-      <c r="L144" s="1" t="s">
+      <c r="M144" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M144" s="3"/>
-      <c r="N144" s="1">
+      <c r="N144" s="3"/>
+      <c r="O144" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="16" customHeight="1">
+    <row r="145" spans="1:15" ht="16" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="L145" s="1"/>
-      <c r="M145" s="3"/>
-      <c r="N145" s="1"/>
-    </row>
-    <row r="146" spans="1:14" ht="16" customHeight="1">
+        <v>698</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="1"/>
+    </row>
+    <row r="146" spans="1:15" ht="16" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="B146" s="1"/>
+      <c r="G146" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I146" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="J146" s="1">
+      <c r="J146" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="K146" s="1">
         <v>117</v>
       </c>
-      <c r="L146" s="1"/>
-      <c r="M146" s="3"/>
-      <c r="N146" s="1"/>
-    </row>
-    <row r="147" spans="1:14" ht="16" customHeight="1">
+      <c r="M146" s="1"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="1"/>
+    </row>
+    <row r="147" spans="1:15" ht="16" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="B147" s="1"/>
+      <c r="G147" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I147" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="L147" s="1"/>
-      <c r="M147" s="3"/>
-      <c r="N147" s="1"/>
-    </row>
-    <row r="148" spans="1:14" ht="16" customHeight="1">
+      <c r="J147" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="M147" s="1"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="1"/>
+    </row>
+    <row r="148" spans="1:15" ht="16" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C148" s="1">
+      <c r="D148" s="1">
         <v>6.9666670000000002</v>
       </c>
-      <c r="D148" s="1">
+      <c r="E148" s="1">
         <v>-73.883332999999993</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="H148" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I148" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="J148" s="1">
+      <c r="J148" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="K148" s="1">
         <v>103</v>
       </c>
-      <c r="K148" s="1">
+      <c r="L148" s="1">
         <v>7</v>
       </c>
-      <c r="L148" s="2">
+      <c r="M148" s="2">
         <v>4776</v>
       </c>
-      <c r="M148" s="3"/>
-      <c r="N148" s="1">
+      <c r="N148" s="3"/>
+      <c r="O148" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="16" customHeight="1">
+    <row r="149" spans="1:15" ht="16" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B149" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C149" s="6">
+      <c r="D149" s="6">
         <v>5.1310219999999997</v>
       </c>
-      <c r="D149" s="1">
+      <c r="E149" s="1">
         <v>-74.158075999999994</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="H149" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="L149" s="2"/>
-      <c r="M149" s="3"/>
-      <c r="N149" s="1"/>
-    </row>
-    <row r="150" spans="1:14" ht="16" customHeight="1">
+      <c r="M149" s="2"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="1"/>
+    </row>
+    <row r="150" spans="1:15" ht="16" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C150" s="1">
+      <c r="D150" s="1">
         <v>3.5333329999999998</v>
       </c>
-      <c r="D150" s="1">
+      <c r="E150" s="1">
         <v>-76.266666999999998</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="K150" s="1">
+      <c r="L150" s="1">
         <v>1</v>
       </c>
-      <c r="L150" s="1"/>
-      <c r="M150" s="3"/>
-      <c r="N150" s="1">
+      <c r="M150" s="1"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="16" customHeight="1">
+    <row r="151" spans="1:15" ht="16" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C151" s="6">
+      <c r="D151" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D151" s="1">
+      <c r="E151" s="1">
         <v>-74.166667000000004</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I151" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="J151" s="1">
+      <c r="J151" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="K151" s="1">
         <v>91</v>
       </c>
-      <c r="L151" s="1"/>
-      <c r="M151" s="3"/>
-      <c r="N151" s="1"/>
-    </row>
-    <row r="152" spans="1:14" ht="16" customHeight="1">
+      <c r="M151" s="1"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="1"/>
+    </row>
+    <row r="152" spans="1:15" ht="16" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="B152" s="1"/>
+      <c r="G152" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I152" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="J152" s="1">
+      <c r="J152" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="K152" s="1">
         <v>146</v>
       </c>
-      <c r="L152" s="1"/>
-      <c r="M152" s="3"/>
-      <c r="N152" s="1"/>
-    </row>
-    <row r="153" spans="1:14" ht="16" customHeight="1">
+      <c r="M152" s="1"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="1"/>
+    </row>
+    <row r="153" spans="1:15" ht="16" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C153" s="1">
+      <c r="D153" s="1">
         <v>7.1027300000000002</v>
       </c>
-      <c r="D153" s="1">
+      <c r="E153" s="1">
         <v>-75.969299000000007</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I153" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="J153" s="1">
+      <c r="J153" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="K153" s="1">
         <v>32</v>
       </c>
-      <c r="K153" s="1">
+      <c r="L153" s="1">
         <v>8</v>
       </c>
-      <c r="L153" s="1" t="s">
+      <c r="M153" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M153" s="3"/>
-      <c r="N153" s="1">
+      <c r="N153" s="3"/>
+      <c r="O153" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="16" customHeight="1">
+    <row r="154" spans="1:15" ht="16" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="B154" s="1"/>
+      <c r="G154" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="J154" s="1">
+      <c r="J154" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="K154" s="1">
         <v>152</v>
       </c>
-      <c r="L154" s="1"/>
-      <c r="M154" s="3"/>
-      <c r="N154" s="1"/>
-    </row>
-    <row r="155" spans="1:14" ht="16" customHeight="1">
+      <c r="M154" s="1"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="1"/>
+    </row>
+    <row r="155" spans="1:15" ht="16" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="B155" s="1"/>
+      <c r="G155" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I155" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="J155" s="1">
+      <c r="J155" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="K155" s="1">
         <v>151</v>
       </c>
-      <c r="L155" s="1"/>
-      <c r="M155" s="3"/>
-      <c r="N155" s="1"/>
-    </row>
-    <row r="156" spans="1:14" ht="16" customHeight="1">
+      <c r="M155" s="1"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="1"/>
+    </row>
+    <row r="156" spans="1:15" ht="16" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="B156" s="1"/>
+      <c r="G156" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I156" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="J156" s="1">
+      <c r="J156" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="K156" s="1">
         <v>162</v>
       </c>
-      <c r="L156" s="1"/>
-      <c r="M156" s="3"/>
-      <c r="N156" s="1"/>
-    </row>
-    <row r="157" spans="1:14" ht="16" customHeight="1">
+      <c r="M156" s="1"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="1"/>
+    </row>
+    <row r="157" spans="1:15" ht="16" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="C157" s="6">
+        <v>727</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D157" s="6">
         <v>7.4166670000000003</v>
       </c>
-      <c r="D157" s="1">
+      <c r="E157" s="1">
         <v>-72.433333000000005</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="G157" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="H157" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I157" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="J157" s="1">
+      <c r="J157" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="K157" s="1">
         <v>161</v>
       </c>
-      <c r="K157" s="1" t="s">
+      <c r="L157" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L157" s="1"/>
-      <c r="M157" s="3"/>
-      <c r="N157" s="1"/>
-    </row>
-    <row r="158" spans="1:14" ht="16" customHeight="1">
+      <c r="M157" s="1"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="1"/>
+    </row>
+    <row r="158" spans="1:15" ht="16" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C158" s="1">
+      <c r="D158" s="1">
         <v>4.6803179999999998</v>
       </c>
-      <c r="D158" s="1">
+      <c r="E158" s="1">
         <v>-75.413456999999994</v>
       </c>
-      <c r="E158" s="1">
+      <c r="F158" s="1">
         <v>3810</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I158" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J158" s="1">
+      <c r="J158" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="K158" s="1">
         <v>49</v>
       </c>
-      <c r="K158" s="1">
+      <c r="L158" s="1">
         <v>3</v>
       </c>
-      <c r="L158" s="1" t="s">
+      <c r="M158" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M158" s="3"/>
-      <c r="N158" s="1">
+      <c r="N158" s="3"/>
+      <c r="O158" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="16" customHeight="1">
+    <row r="159" spans="1:15" ht="16" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="B159" s="1"/>
+      <c r="G159" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="I159" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="J159" s="1">
+      <c r="J159" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="K159" s="1">
         <v>62</v>
       </c>
-      <c r="L159" s="1"/>
-      <c r="M159" s="3"/>
-      <c r="N159" s="1"/>
-    </row>
-    <row r="160" spans="1:14" ht="16" customHeight="1">
+      <c r="M159" s="1"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="1"/>
+    </row>
+    <row r="160" spans="1:15" ht="16" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="B160" s="1"/>
+      <c r="G160" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="I160" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="J160" s="1">
+      <c r="J160" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K160" s="1">
         <v>60</v>
       </c>
-      <c r="L160" s="1"/>
-      <c r="M160" s="3"/>
-      <c r="N160" s="1"/>
-    </row>
-    <row r="161" spans="1:14" ht="16" customHeight="1">
+      <c r="M160" s="1"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="1"/>
+    </row>
+    <row r="161" spans="1:15" ht="16" customHeight="1">
       <c r="A161" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="B161" s="1"/>
+      <c r="G161" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I161" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J161" s="1">
+      <c r="J161" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="K161" s="1">
         <v>104</v>
       </c>
-      <c r="L161" s="1"/>
-      <c r="M161" s="3"/>
-      <c r="N161" s="1"/>
-    </row>
-    <row r="162" spans="1:14" ht="16" customHeight="1">
+      <c r="M161" s="1"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="1"/>
+    </row>
+    <row r="162" spans="1:15" ht="16" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C162" s="6">
+      <c r="D162" s="6">
         <v>3.6766540000000001</v>
       </c>
-      <c r="D162" s="1">
+      <c r="E162" s="1">
         <v>-76.584214000000003</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="G162" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="H162" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I162" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="J162" s="1">
+      <c r="J162" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="K162" s="1">
         <v>23</v>
       </c>
-      <c r="L162" s="1"/>
-      <c r="M162" s="3"/>
-      <c r="N162" s="1"/>
-    </row>
-    <row r="163" spans="1:14" ht="16" customHeight="1">
+      <c r="M162" s="1"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="1"/>
+    </row>
+    <row r="163" spans="1:15" ht="16" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C163" s="1">
+      <c r="D163" s="1">
         <v>7.0217219999999996</v>
       </c>
-      <c r="D163" s="1">
+      <c r="E163" s="1">
         <v>-75.909411000000006</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I163" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="J163" s="1">
+      <c r="J163" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="K163" s="1">
         <v>33</v>
       </c>
-      <c r="K163" s="1">
+      <c r="L163" s="1">
         <v>8</v>
       </c>
-      <c r="L163" s="2">
+      <c r="M163" s="2">
         <v>5514</v>
       </c>
-      <c r="M163" s="3"/>
-      <c r="N163" s="1">
+      <c r="N163" s="3"/>
+      <c r="O163" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="16" customHeight="1">
+    <row r="164" spans="1:15" ht="16" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="B164" s="1"/>
+      <c r="G164" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="I164" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="J164" s="1">
+      <c r="J164" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K164" s="1">
         <v>114</v>
       </c>
-      <c r="L164" s="1"/>
-      <c r="M164" s="3"/>
-      <c r="N164" s="1"/>
-    </row>
-    <row r="165" spans="1:14" ht="16" customHeight="1">
+      <c r="M164" s="1"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="1"/>
+    </row>
+    <row r="165" spans="1:15" ht="16" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="B165" s="1"/>
+      <c r="G165" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I165" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="L165" s="1"/>
-      <c r="M165" s="3"/>
-      <c r="N165" s="1"/>
-    </row>
-    <row r="166" spans="1:14" ht="16" customHeight="1">
+      <c r="J165" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="M165" s="1"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="1"/>
+    </row>
+    <row r="166" spans="1:15" ht="16" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="B166" s="1"/>
+      <c r="G166" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I166" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="L166" s="1"/>
-      <c r="M166" s="3"/>
-      <c r="N166" s="1"/>
-    </row>
-    <row r="167" spans="1:14" ht="16" customHeight="1">
+      <c r="J166" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="M166" s="1"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="1"/>
+    </row>
+    <row r="167" spans="1:15" ht="16" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="B167" s="1"/>
+      <c r="G167" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I167" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="J167" s="1">
+      <c r="J167" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="K167" s="1">
         <v>121</v>
       </c>
-      <c r="L167" s="1"/>
-      <c r="M167" s="3"/>
-      <c r="N167" s="1"/>
-    </row>
-    <row r="168" spans="1:14" ht="16" customHeight="1">
+      <c r="M167" s="1"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="1"/>
+    </row>
+    <row r="168" spans="1:15" ht="16" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C168" s="1">
+      <c r="D168" s="1">
         <v>2.4421170000000001</v>
       </c>
-      <c r="D168" s="1">
+      <c r="E168" s="1">
         <v>-76.606365999999994</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="G168" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I168" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="J168" s="1">
+      <c r="J168" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="K168" s="1">
         <v>56</v>
       </c>
-      <c r="K168" s="1">
+      <c r="L168" s="1">
         <v>2</v>
       </c>
-      <c r="L168" s="1"/>
-      <c r="M168" s="3"/>
-      <c r="N168" s="1"/>
-    </row>
-    <row r="169" spans="1:14" ht="16" customHeight="1">
+      <c r="M168" s="1"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="1"/>
+    </row>
+    <row r="169" spans="1:15" ht="16" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="B169" s="1"/>
+      <c r="G169" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="I169" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="J169" s="1">
+      <c r="J169" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="K169" s="1">
         <v>112</v>
       </c>
-      <c r="L169" s="1"/>
-      <c r="M169" s="3"/>
-      <c r="N169" s="1"/>
-    </row>
-    <row r="170" spans="1:14" ht="16" customHeight="1">
+      <c r="M169" s="1"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="1"/>
+    </row>
+    <row r="170" spans="1:15" ht="16" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="B170" s="1"/>
+      <c r="G170" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="I170" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="J170" s="1">
+      <c r="J170" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="K170" s="1">
         <v>13</v>
       </c>
-      <c r="L170" s="1"/>
-      <c r="M170" s="3"/>
-      <c r="N170" s="1"/>
-    </row>
-    <row r="171" spans="1:14" ht="16" customHeight="1">
+      <c r="M170" s="1"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="1"/>
+    </row>
+    <row r="171" spans="1:15" ht="16" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="B171" s="1"/>
+      <c r="G171" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I171" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="J171" s="1">
+      <c r="J171" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="K171" s="1">
         <v>150</v>
       </c>
-      <c r="L171" s="1"/>
-      <c r="M171" s="3"/>
-      <c r="N171" s="1"/>
-    </row>
-    <row r="172" spans="1:14" ht="16" customHeight="1">
+      <c r="M171" s="1"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="1"/>
+    </row>
+    <row r="172" spans="1:15" ht="16" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C172" s="6">
+      <c r="D172" s="6">
         <v>4.9289129999999997</v>
       </c>
-      <c r="D172" s="1">
+      <c r="E172" s="1">
         <v>-74.172393999999997</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="G172" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="J172" s="1">
+      <c r="H172" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="K172" s="1">
         <v>90</v>
       </c>
-      <c r="L172" s="1"/>
-      <c r="M172" s="3"/>
-      <c r="N172" s="1"/>
-    </row>
-    <row r="173" spans="1:14" ht="16" customHeight="1">
+      <c r="M172" s="1"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="1"/>
+    </row>
+    <row r="173" spans="1:15" ht="16" customHeight="1">
       <c r="A173" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C173" s="1">
+      <c r="D173" s="1">
         <v>6.4896330000000004</v>
       </c>
-      <c r="D173" s="1">
+      <c r="E173" s="1">
         <v>-74.402275000000003</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="G173" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="H173" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I173" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="J173" s="1">
+      <c r="J173" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K173" s="1">
         <v>101</v>
       </c>
-      <c r="K173" s="1">
+      <c r="L173" s="1">
         <v>7</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="M173" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M173" s="3"/>
-      <c r="N173" s="1">
+      <c r="N173" s="3"/>
+      <c r="O173" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="16" customHeight="1">
+    <row r="174" spans="1:15" ht="16" customHeight="1">
       <c r="A174" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="B174" s="1"/>
+      <c r="G174" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="J174" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="J174" s="1">
+      <c r="K174" s="1">
         <v>123</v>
       </c>
-      <c r="L174" s="1"/>
-      <c r="M174" s="3"/>
-      <c r="N174" s="1"/>
-    </row>
-    <row r="175" spans="1:14" ht="16" customHeight="1">
+      <c r="M174" s="1"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="1"/>
+    </row>
+    <row r="175" spans="1:15" ht="16" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="1"/>
+      <c r="C175" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C175" s="1">
+      <c r="D175" s="1">
         <v>7.2893670000000004</v>
       </c>
-      <c r="D175" s="1">
+      <c r="E175" s="1">
         <v>-75.394159000000002</v>
       </c>
-      <c r="E175" s="1">
+      <c r="F175" s="1">
         <v>180</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="G175" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="H175" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I175" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="J175" s="1">
+      <c r="J175" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K175" s="1">
         <v>35</v>
       </c>
-      <c r="K175" s="1">
+      <c r="L175" s="1">
         <v>8</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="M175" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M175" s="3"/>
-      <c r="N175" s="1">
+      <c r="N175" s="3"/>
+      <c r="O175" s="1">
         <v>334</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="16" customHeight="1">
+    <row r="176" spans="1:15" ht="16" customHeight="1">
       <c r="A176" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="B176" s="1"/>
+      <c r="G176" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I176" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="J176" s="1">
+      <c r="J176" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="K176" s="1">
         <v>105</v>
       </c>
-      <c r="L176" s="1"/>
-      <c r="M176" s="3"/>
-      <c r="N176" s="1"/>
-    </row>
-    <row r="177" spans="1:14" ht="16" customHeight="1">
+      <c r="M176" s="1"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="1"/>
+    </row>
+    <row r="177" spans="1:15" ht="16" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="C177" s="6">
+        <v>716</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D177" s="6">
         <v>5.95</v>
       </c>
-      <c r="D177" s="1">
+      <c r="E177" s="1">
         <v>-74.599999999999994</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="H177" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L177" s="1"/>
-      <c r="M177" s="3"/>
-      <c r="N177" s="1"/>
-    </row>
-    <row r="178" spans="1:14" ht="16" customHeight="1">
+      <c r="M177" s="1"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="1"/>
+    </row>
+    <row r="178" spans="1:15" ht="16" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="1"/>
+      <c r="C178" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C178" s="6">
+      <c r="D178" s="6">
         <v>3.8574250000000001</v>
       </c>
-      <c r="D178" s="1">
+      <c r="E178" s="1">
         <v>-74.930802999999997</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="H178" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I178" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="J178" s="1">
+      <c r="J178" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="K178" s="1">
         <v>68</v>
       </c>
-      <c r="L178" s="1"/>
-      <c r="M178" s="3"/>
-      <c r="N178" s="1"/>
-    </row>
-    <row r="179" spans="1:14" ht="16" customHeight="1">
+      <c r="M178" s="1"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="1"/>
+    </row>
+    <row r="179" spans="1:15" ht="16" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="1"/>
+      <c r="C179" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C179" s="1">
+      <c r="D179" s="1">
         <v>4.3303649999999996</v>
       </c>
-      <c r="D179" s="1">
+      <c r="E179" s="1">
         <v>-73.862810999999994</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="G179" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="H179" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I179" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="J179" s="1">
+      <c r="J179" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="K179" s="1">
         <v>168</v>
       </c>
-      <c r="K179" s="1">
+      <c r="L179" s="1">
         <v>7</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="M179" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="M179" s="3"/>
-      <c r="N179" s="1">
+      <c r="N179" s="3"/>
+      <c r="O179" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="16" customHeight="1">
+    <row r="180" spans="1:15" ht="16" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="1"/>
+      <c r="C180" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C180" s="1">
+      <c r="D180" s="1">
         <v>5.6926730000000001</v>
       </c>
-      <c r="D180" s="1">
+      <c r="E180" s="1">
         <v>-76.660818000000006</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="G180" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="H180" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I180" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="J180" s="1">
+      <c r="J180" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="K180" s="1">
         <v>8</v>
       </c>
-      <c r="L180" s="1"/>
-      <c r="M180" s="3"/>
-      <c r="N180" s="1"/>
-    </row>
-    <row r="181" spans="1:14" ht="16" customHeight="1">
+      <c r="M180" s="1"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="1"/>
+    </row>
+    <row r="181" spans="1:15" ht="16" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="B181" s="1"/>
+      <c r="G181" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I181" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="L181" s="1"/>
-      <c r="M181" s="3"/>
-      <c r="N181" s="1"/>
-    </row>
-    <row r="182" spans="1:14" ht="16" customHeight="1">
+      <c r="J181" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="M181" s="1"/>
+      <c r="N181" s="3"/>
+      <c r="O181" s="1"/>
+    </row>
+    <row r="182" spans="1:15" ht="16" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C182" s="6">
+      <c r="D182" s="6">
         <v>7.0281469999999997</v>
       </c>
-      <c r="D182" s="1">
+      <c r="E182" s="1">
         <v>-74.693987000000007</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="H182" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I182" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="J182" s="1">
+      <c r="J182" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="K182" s="1">
         <v>120</v>
       </c>
-      <c r="L182" s="1"/>
-      <c r="M182" s="3"/>
-      <c r="N182" s="1"/>
-    </row>
-    <row r="183" spans="1:14" ht="16" customHeight="1">
+      <c r="M182" s="1"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="1"/>
+    </row>
+    <row r="183" spans="1:15" ht="16" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C183" s="6">
+      <c r="B183" s="1"/>
+      <c r="C183" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D183" s="6">
         <v>10.7</v>
       </c>
-      <c r="D183" s="1">
+      <c r="E183" s="1">
         <v>-74.716667000000001</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="H183" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I183" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="K183" s="1">
+      <c r="J183" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="L183" s="1">
         <v>7</v>
       </c>
-      <c r="L183" s="2">
+      <c r="M183" s="2">
         <v>4774</v>
       </c>
-      <c r="M183" s="3"/>
-      <c r="N183" s="1">
+      <c r="N183" s="3"/>
+      <c r="O183" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="16" customHeight="1">
+    <row r="184" spans="1:15" ht="16" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="B184" s="1"/>
+      <c r="G184" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I184" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="J184" s="1">
+      <c r="J184" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="K184" s="1">
         <v>42</v>
       </c>
-      <c r="L184" s="1"/>
-      <c r="M184" s="3"/>
-      <c r="N184" s="1"/>
-    </row>
-    <row r="185" spans="1:14" ht="16" customHeight="1">
+      <c r="M184" s="1"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="1"/>
+    </row>
+    <row r="185" spans="1:15" ht="16" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="1"/>
+      <c r="C185" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C185" s="1">
+      <c r="D185" s="1">
         <v>1.210709</v>
       </c>
-      <c r="D185" s="1">
+      <c r="E185" s="1">
         <v>-77.994065000000006</v>
       </c>
-      <c r="E185" s="1">
+      <c r="F185" s="1">
         <v>1300</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="G185" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I185" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="J185" s="1">
+      <c r="J185" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K185" s="1">
         <v>31</v>
       </c>
-      <c r="K185" s="1">
+      <c r="L185" s="1">
         <v>6</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="M185" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M185" s="3"/>
-      <c r="N185" s="1">
+      <c r="N185" s="3"/>
+      <c r="O185" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="16" customHeight="1">
+    <row r="186" spans="1:15" ht="16" customHeight="1">
       <c r="A186" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C186" s="1">
+      <c r="D186" s="1">
         <v>5.516667</v>
       </c>
-      <c r="D186" s="1">
+      <c r="E186" s="1">
         <v>-76.516666999999998</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="G186" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="H186" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I186" s="1" t="s">
+      <c r="J186" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="K186" s="1">
+        <v>10</v>
+      </c>
+      <c r="M186" s="1"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="1"/>
+    </row>
+    <row r="187" spans="1:15" ht="16" customHeight="1">
+      <c r="A187" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="G187" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="M187" s="1"/>
+      <c r="N187" s="3"/>
+      <c r="O187" s="1"/>
+    </row>
+    <row r="188" spans="1:15" ht="16" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="G188" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J188" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="J186" s="1">
-        <v>10</v>
-      </c>
-      <c r="L186" s="1"/>
-      <c r="M186" s="3"/>
-      <c r="N186" s="1"/>
-    </row>
-    <row r="187" spans="1:14" ht="16" customHeight="1">
-      <c r="A187" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="L187" s="1"/>
-      <c r="M187" s="3"/>
-      <c r="N187" s="1"/>
-    </row>
-    <row r="188" spans="1:14" ht="16" customHeight="1">
-      <c r="A188" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="L188" s="1"/>
-      <c r="M188" s="3"/>
-      <c r="N188" s="1"/>
-    </row>
-    <row r="189" spans="1:14" ht="16" customHeight="1">
+      <c r="M188" s="1"/>
+      <c r="N188" s="3"/>
+      <c r="O188" s="1"/>
+    </row>
+    <row r="189" spans="1:15" ht="16" customHeight="1">
       <c r="A189" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="B189" s="1"/>
+      <c r="G189" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I189" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="L189" s="1"/>
-      <c r="M189" s="3"/>
-      <c r="N189" s="1"/>
-    </row>
-    <row r="190" spans="1:14" ht="16" customHeight="1">
+      <c r="J189" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="M189" s="1"/>
+      <c r="N189" s="3"/>
+      <c r="O189" s="1"/>
+    </row>
+    <row r="190" spans="1:15" ht="16" customHeight="1">
       <c r="A190" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="B190" s="1"/>
+      <c r="G190" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I190" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="L190" s="1"/>
-      <c r="M190" s="3"/>
-      <c r="N190" s="1"/>
-    </row>
-    <row r="191" spans="1:14" ht="16" customHeight="1">
+      <c r="J190" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="M190" s="1"/>
+      <c r="N190" s="3"/>
+      <c r="O190" s="1"/>
+    </row>
+    <row r="191" spans="1:15" ht="16" customHeight="1">
       <c r="A191" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="1"/>
+      <c r="C191" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C191" s="1">
+      <c r="D191" s="1">
         <v>4.1567889999999998</v>
       </c>
-      <c r="D191" s="1">
+      <c r="E191" s="1">
         <v>-76.287779999999998</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="G191" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="H191" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="I191" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J191" s="1">
+      <c r="J191" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="K191" s="1">
         <v>50</v>
       </c>
-      <c r="K191" s="1">
+      <c r="L191" s="1">
         <v>3</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="M191" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M191" s="3"/>
-      <c r="N191" s="1">
+      <c r="N191" s="3"/>
+      <c r="O191" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="16" customHeight="1">
+    <row r="192" spans="1:15" ht="16" customHeight="1">
       <c r="A192" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="B192" s="1"/>
+      <c r="G192" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I192" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="L192" s="1"/>
-      <c r="M192" s="3"/>
-      <c r="N192" s="1"/>
-    </row>
-    <row r="193" spans="1:14" ht="16" customHeight="1">
+      <c r="J192" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="M192" s="1"/>
+      <c r="N192" s="3"/>
+      <c r="O192" s="1"/>
+    </row>
+    <row r="193" spans="1:15" ht="16" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="B193" s="1"/>
+      <c r="G193" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I193" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="L193" s="1"/>
-      <c r="M193" s="3"/>
-      <c r="N193" s="1"/>
-    </row>
-    <row r="194" spans="1:14" ht="16" customHeight="1">
+      <c r="J193" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="M193" s="1"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="1"/>
+    </row>
+    <row r="194" spans="1:15" ht="16" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="B194" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C194" s="6">
+      <c r="D194" s="6">
         <v>7.2833329999999998</v>
       </c>
-      <c r="D194" s="1">
+      <c r="E194" s="1">
         <v>-76.599999999999994</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="H194" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L194" s="1"/>
-      <c r="M194" s="3"/>
-      <c r="N194" s="1"/>
-    </row>
-    <row r="195" spans="1:14" ht="16" customHeight="1">
+      <c r="M194" s="1"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="1"/>
+    </row>
+    <row r="195" spans="1:15" ht="16" customHeight="1">
       <c r="A195" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="B195" s="1"/>
+      <c r="G195" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I195" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="J195" s="1">
+      <c r="J195" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="K195" s="1">
         <v>4</v>
       </c>
-      <c r="L195" s="1"/>
-      <c r="M195" s="3"/>
-      <c r="N195" s="1"/>
-    </row>
-    <row r="196" spans="1:14" ht="16" customHeight="1">
+      <c r="M195" s="1"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="1"/>
+    </row>
+    <row r="196" spans="1:15" ht="16" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C196" s="6">
+      <c r="D196" s="6">
         <v>8.7833330000000007</v>
       </c>
-      <c r="D196" s="1">
+      <c r="E196" s="1">
         <v>-76.516666999999998</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="G196" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="H196" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I196" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="L196" s="1"/>
-      <c r="M196" s="3"/>
-      <c r="N196" s="1"/>
-    </row>
-    <row r="197" spans="1:14" ht="16" customHeight="1">
+      <c r="J196" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="M196" s="1"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="1"/>
+    </row>
+    <row r="197" spans="1:15" ht="16" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B197" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C197" s="6">
+      <c r="D197" s="6">
         <v>9.1166669999999996</v>
       </c>
-      <c r="D197" s="1">
+      <c r="E197" s="1">
         <v>-74.733333000000002</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="H197" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L197" s="1"/>
-      <c r="M197" s="3"/>
-      <c r="N197" s="1"/>
-    </row>
-    <row r="198" spans="1:14" ht="16" customHeight="1">
+      <c r="M197" s="1"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="1"/>
+    </row>
+    <row r="198" spans="1:15" ht="16" customHeight="1">
       <c r="A198" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C198" s="1">
+      <c r="D198" s="1">
         <v>4.5277329999999996</v>
       </c>
-      <c r="D198" s="1">
+      <c r="E198" s="1">
         <v>-75.409361000000004</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="G198" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="H198" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I198" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="J198" s="1">
+      <c r="J198" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="K198" s="1">
         <v>72</v>
       </c>
-      <c r="K198" s="1">
+      <c r="L198" s="1">
         <v>3</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="M198" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M198" s="3"/>
-      <c r="N198" s="1">
+      <c r="N198" s="3"/>
+      <c r="O198" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="16" customHeight="1">
+    <row r="199" spans="1:15" ht="16" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="B199" s="1"/>
+      <c r="G199" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I199" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="J199" s="1">
+      <c r="J199" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="K199" s="1">
         <v>3</v>
       </c>
-      <c r="L199" s="1"/>
-      <c r="M199" s="3"/>
-      <c r="N199" s="1"/>
-    </row>
-    <row r="200" spans="1:14" ht="16" customHeight="1">
+      <c r="M199" s="1"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="1"/>
+    </row>
+    <row r="200" spans="1:15" ht="16" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B200" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C200" s="6">
+      <c r="D200" s="6">
         <v>7.45</v>
       </c>
-      <c r="D200" s="1">
+      <c r="E200" s="1">
         <v>-77.116667000000007</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="L200" s="1"/>
-      <c r="M200" s="3"/>
-      <c r="N200" s="1"/>
-    </row>
-    <row r="201" spans="1:14" ht="16" customHeight="1">
+      <c r="H200" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="M200" s="1"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="1"/>
+    </row>
+    <row r="201" spans="1:15" ht="16" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="1"/>
+      <c r="C201" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C201" s="1">
+      <c r="D201" s="1">
         <v>4.6468249999999998</v>
       </c>
-      <c r="D201" s="1">
+      <c r="E201" s="1">
         <v>-75.578277999999997</v>
       </c>
-      <c r="E201" s="1">
+      <c r="F201" s="1">
         <v>1980</v>
       </c>
-      <c r="F201" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>762</v>
-      </c>
       <c r="I201" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="J201" s="1">
+        <v>760</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="K201" s="1">
         <v>46</v>
       </c>
-      <c r="K201" s="1">
+      <c r="L201" s="1">
         <v>2</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="M201" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M201" s="3"/>
-      <c r="N201" s="1">
+      <c r="N201" s="3"/>
+      <c r="O201" s="1">
         <v>342</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="16" customHeight="1">
+    <row r="202" spans="1:15" ht="16" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C202" s="1">
+      <c r="D202" s="1">
         <v>1.8824890000000001</v>
       </c>
-      <c r="D202" s="1">
+      <c r="E202" s="1">
         <v>-76.271326000000002</v>
       </c>
-      <c r="E202" s="1">
+      <c r="F202" s="1">
         <v>1500</v>
       </c>
-      <c r="F202" s="1" t="s">
+      <c r="G202" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="H202" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I202" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="J202" s="1">
+      <c r="J202" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="K202" s="1">
         <v>66</v>
       </c>
-      <c r="K202" s="1">
+      <c r="L202" s="1">
         <v>5</v>
       </c>
-      <c r="L202" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="M202" s="3"/>
-      <c r="N202" s="1">
+      <c r="M202" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="N202" s="3"/>
+      <c r="O202" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="16" customHeight="1">
+    <row r="203" spans="1:15" ht="16" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="1"/>
+      <c r="C203" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C203" s="1">
+      <c r="D203" s="1">
         <v>3.5</v>
       </c>
-      <c r="D203" s="1">
+      <c r="E203" s="1">
         <v>-76.633332999999993</v>
       </c>
-      <c r="F203" s="1" t="s">
+      <c r="G203" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="H203" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I203" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="J203" s="1">
+      <c r="J203" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="K203" s="1">
         <v>54</v>
       </c>
-      <c r="K203" s="1">
+      <c r="L203" s="1">
         <v>1</v>
       </c>
-      <c r="L203" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="M203" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="N203" s="1">
+      <c r="M203" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="N203" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="O203" s="1">
         <v>766</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="16" customHeight="1">
+    <row r="204" spans="1:15" ht="16" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B204" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C204" s="6">
+      <c r="D204" s="6">
         <v>4.6166669999999996</v>
       </c>
-      <c r="D204" s="1">
+      <c r="E204" s="1">
         <v>-74.349999999999994</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="L204" s="1"/>
-      <c r="M204" s="3"/>
-      <c r="N204" s="1"/>
-    </row>
-    <row r="205" spans="1:14" ht="16" customHeight="1">
+      <c r="H204" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="M204" s="1"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="1"/>
+    </row>
+    <row r="205" spans="1:15" ht="16" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F205" s="1" t="s">
+      <c r="B205" s="1"/>
+      <c r="G205" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="I205" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="L205" s="1"/>
-      <c r="M205" s="3"/>
-      <c r="N205" s="1"/>
-    </row>
-    <row r="206" spans="1:14" ht="16" customHeight="1">
+      <c r="J205" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="M205" s="1"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="1"/>
+    </row>
+    <row r="206" spans="1:15" ht="16" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B206" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L206" s="1"/>
-      <c r="M206" s="3"/>
-      <c r="N206" s="1"/>
-    </row>
-    <row r="207" spans="1:14" ht="16" customHeight="1">
+      <c r="M206" s="1"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="1"/>
+    </row>
+    <row r="207" spans="1:15" ht="16" customHeight="1">
       <c r="A207" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="1"/>
+      <c r="C207" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C207" s="1">
+      <c r="D207" s="1">
         <v>3.85</v>
       </c>
-      <c r="D207" s="1">
+      <c r="E207" s="1">
         <v>-76.866667000000007</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="G207" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H207" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="J207" s="1">
+      <c r="J207" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="K207" s="1">
         <v>20</v>
       </c>
-      <c r="K207" s="1">
+      <c r="L207" s="1">
         <v>1</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="M207" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M207" s="3"/>
-      <c r="N207" s="1">
+      <c r="N207" s="3"/>
+      <c r="O207" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="16" customHeight="1">
+    <row r="208" spans="1:15" ht="16" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C208" s="6">
+        <v>722</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D208" s="6">
         <v>10.75</v>
       </c>
-      <c r="D208" s="1">
+      <c r="E208" s="1">
         <v>-73.400000000000006</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="G208" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="H208" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I208" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="L208" s="1"/>
-      <c r="M208" s="3"/>
-      <c r="N208" s="1"/>
-    </row>
-    <row r="209" spans="1:14" ht="16" customHeight="1">
+      <c r="J208" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="M208" s="1"/>
+      <c r="N208" s="3"/>
+      <c r="O208" s="1"/>
+    </row>
+    <row r="209" spans="1:15" ht="16" customHeight="1">
       <c r="A209" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F209" s="1" t="s">
+      <c r="B209" s="1"/>
+      <c r="G209" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="I209" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="J209" s="1">
+      <c r="J209" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="K209" s="1">
         <v>143</v>
       </c>
-      <c r="L209" s="1"/>
-      <c r="M209" s="3"/>
-      <c r="N209" s="1"/>
-    </row>
-    <row r="210" spans="1:14" ht="16" customHeight="1">
+      <c r="M209" s="1"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="1"/>
+    </row>
+    <row r="210" spans="1:15" ht="16" customHeight="1">
       <c r="A210" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F210" s="1" t="s">
+      <c r="B210" s="1"/>
+      <c r="G210" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="I210" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="L210" s="1"/>
-      <c r="M210" s="3"/>
-      <c r="N210" s="1"/>
-    </row>
-    <row r="211" spans="1:14" ht="16" customHeight="1">
+      <c r="J210" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="M210" s="1"/>
+      <c r="N210" s="3"/>
+      <c r="O210" s="1"/>
+    </row>
+    <row r="211" spans="1:15" ht="16" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="B211" s="1"/>
+      <c r="G211" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="I211" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="J211" s="1">
+      <c r="J211" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="K211" s="1">
         <v>170</v>
       </c>
-      <c r="L211" s="1"/>
-      <c r="M211" s="3"/>
-      <c r="N211" s="1"/>
-    </row>
-    <row r="212" spans="1:14" ht="16" customHeight="1">
+      <c r="M211" s="1"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="1"/>
+    </row>
+    <row r="212" spans="1:15" ht="16" customHeight="1">
       <c r="A212" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F212" s="1" t="s">
+      <c r="B212" s="1"/>
+      <c r="G212" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I212" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="J212" s="1">
+      <c r="J212" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="K212" s="1">
         <v>147</v>
       </c>
-      <c r="L212" s="1"/>
-      <c r="M212" s="3"/>
-      <c r="N212" s="1"/>
-    </row>
-    <row r="213" spans="1:14" ht="16" customHeight="1">
+      <c r="M212" s="1"/>
+      <c r="N212" s="3"/>
+      <c r="O212" s="1"/>
+    </row>
+    <row r="213" spans="1:15" ht="16" customHeight="1">
       <c r="A213" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="B213" s="1"/>
+      <c r="G213" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="I213" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="J213" s="1">
+      <c r="J213" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="K213" s="1">
         <v>107</v>
       </c>
-      <c r="L213" s="1"/>
-      <c r="M213" s="3"/>
-      <c r="N213" s="1"/>
-    </row>
-    <row r="214" spans="1:14" ht="16" customHeight="1">
+      <c r="M213" s="1"/>
+      <c r="N213" s="3"/>
+      <c r="O213" s="1"/>
+    </row>
+    <row r="214" spans="1:15" ht="16" customHeight="1">
       <c r="A214" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F214" s="1" t="s">
+      <c r="B214" s="1"/>
+      <c r="G214" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I214" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="L214" s="1"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="1"/>
-    </row>
-    <row r="215" spans="1:14" ht="16" customHeight="1">
+      <c r="J214" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="M214" s="1"/>
+      <c r="N214" s="3"/>
+      <c r="O214" s="1"/>
+    </row>
+    <row r="215" spans="1:15" ht="16" customHeight="1">
       <c r="A215" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F215" s="1" t="s">
+      <c r="B215" s="1"/>
+      <c r="G215" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I215" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="J215" s="1">
+      <c r="J215" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="K215" s="1">
         <v>148</v>
       </c>
-      <c r="L215" s="1"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="1"/>
-    </row>
-    <row r="216" spans="1:14" ht="16" customHeight="1">
+      <c r="M215" s="1"/>
+      <c r="N215" s="3"/>
+      <c r="O215" s="1"/>
+    </row>
+    <row r="216" spans="1:15" ht="16" customHeight="1">
       <c r="A216" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="1"/>
+      <c r="C216" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C216" s="1">
+      <c r="D216" s="1">
         <v>6.209835</v>
       </c>
-      <c r="D216" s="1">
+      <c r="E216" s="1">
         <v>-75.498125000000002</v>
       </c>
-      <c r="F216" s="1" t="s">
+      <c r="G216" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G216" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I216" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="J216" s="1">
+      <c r="H216" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="K216" s="1">
         <v>38</v>
       </c>
-      <c r="K216" s="1">
+      <c r="L216" s="1">
         <v>8</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="M216" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M216" s="3"/>
-      <c r="N216" s="1">
+      <c r="N216" s="3"/>
+      <c r="O216" s="1">
         <v>282</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="16" customHeight="1">
+    <row r="217" spans="1:15" ht="16" customHeight="1">
       <c r="A217" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C217" s="1">
+      <c r="D217" s="1">
         <v>4.6737520000000004</v>
       </c>
-      <c r="D217" s="1">
+      <c r="E217" s="1">
         <v>-75.423862999999997</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I217" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="J217" s="1">
+      <c r="J217" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="K217" s="1">
         <v>48</v>
       </c>
-      <c r="K217" s="1">
+      <c r="L217" s="1">
         <v>3</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="M217" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M217" s="3"/>
-      <c r="N217" s="1">
+      <c r="N217" s="3"/>
+      <c r="O217" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="16" customHeight="1">
+    <row r="218" spans="1:15" ht="16" customHeight="1">
       <c r="A218" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="F218" s="1" t="s">
+      <c r="B218" s="1"/>
+      <c r="G218" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I218" s="1" t="s">
+      <c r="J218" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="J218" s="1">
+      <c r="K218" s="1">
         <v>138</v>
       </c>
-      <c r="L218" s="1"/>
-      <c r="M218" s="3"/>
-      <c r="N218" s="1"/>
-    </row>
-    <row r="219" spans="1:14" ht="16" customHeight="1">
+      <c r="M218" s="1"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="1"/>
+    </row>
+    <row r="219" spans="1:15" ht="16" customHeight="1">
       <c r="A219" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F219" s="1" t="s">
+      <c r="B219" s="1"/>
+      <c r="G219" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I219" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="J219" s="1">
+      <c r="J219" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="K219" s="1">
         <v>119</v>
       </c>
-      <c r="L219" s="1"/>
-      <c r="M219" s="3"/>
-      <c r="N219" s="1"/>
-    </row>
-    <row r="220" spans="1:14" ht="16" customHeight="1">
+      <c r="M219" s="1"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="1"/>
+    </row>
+    <row r="220" spans="1:15" ht="16" customHeight="1">
       <c r="A220" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="B220" s="1"/>
+      <c r="G220" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="I220" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="L220" s="1"/>
-      <c r="M220" s="3"/>
-      <c r="N220" s="1"/>
-    </row>
-    <row r="221" spans="1:14" ht="16" customHeight="1">
+      <c r="J220" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="M220" s="1"/>
+      <c r="N220" s="3"/>
+      <c r="O220" s="1"/>
+    </row>
+    <row r="221" spans="1:15" ht="16" customHeight="1">
       <c r="A221" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" s="1"/>
+      <c r="C221" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C221" s="6">
+      <c r="D221" s="6">
         <v>4.4891170000000002</v>
       </c>
-      <c r="D221" s="1">
+      <c r="E221" s="1">
         <v>-74.260176999999999</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="G221" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="H221" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I221" s="1" t="s">
+      <c r="J221" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="M221" s="1"/>
+      <c r="N221" s="3"/>
+      <c r="O221" s="1"/>
+    </row>
+    <row r="222" spans="1:15" ht="16" customHeight="1">
+      <c r="A222" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D222" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="E222" s="1">
+        <v>-75.816666999999995</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J222" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="L221" s="1"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="1"/>
-    </row>
-    <row r="222" spans="1:14" ht="16" customHeight="1">
-      <c r="A222" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C222" s="6">
-        <v>9.4</v>
-      </c>
-      <c r="D222" s="1">
-        <v>-75.816666999999995</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I222" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="L222" s="1"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="1"/>
-    </row>
-    <row r="223" spans="1:14" ht="16" customHeight="1">
+      <c r="M222" s="1"/>
+      <c r="N222" s="3"/>
+      <c r="O222" s="1"/>
+    </row>
+    <row r="223" spans="1:15" ht="16" customHeight="1">
       <c r="A223" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F223" s="1" t="s">
+      <c r="B223" s="1"/>
+      <c r="G223" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I223" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="J223" s="1">
+      <c r="J223" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="K223" s="1">
         <v>18</v>
       </c>
-      <c r="L223" s="1"/>
-      <c r="M223" s="3"/>
-      <c r="N223" s="1"/>
-    </row>
-    <row r="224" spans="1:14" ht="16" customHeight="1">
+      <c r="M223" s="1"/>
+      <c r="N223" s="3"/>
+      <c r="O223" s="1"/>
+    </row>
+    <row r="224" spans="1:15" ht="16" customHeight="1">
       <c r="A224" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="1"/>
+      <c r="C224" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C224" s="6">
+      <c r="D224" s="6">
         <v>4.7220000000000004</v>
       </c>
-      <c r="D224" s="1">
+      <c r="E224" s="1">
         <v>-74.076374000000001</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="G224" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="H224" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I224" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="L224" s="1"/>
-      <c r="M224" s="3"/>
-      <c r="N224" s="1"/>
-    </row>
-    <row r="225" spans="1:14" ht="16" customHeight="1">
+      <c r="J224" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M224" s="1"/>
+      <c r="N224" s="3"/>
+      <c r="O224" s="1"/>
+    </row>
+    <row r="225" spans="1:15" ht="16" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="1"/>
+      <c r="C225" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C225" s="1">
+      <c r="D225" s="1">
         <v>4.5670000000000002</v>
       </c>
-      <c r="D225" s="1">
+      <c r="E225" s="1">
         <v>-74.45</v>
       </c>
-      <c r="F225" s="1" t="s">
+      <c r="G225" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="H225" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I225" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="J225" s="1">
+      <c r="J225" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="K225" s="1">
         <v>87</v>
       </c>
-      <c r="L225" s="1"/>
-      <c r="M225" s="3"/>
-      <c r="N225" s="1"/>
-    </row>
-    <row r="226" spans="1:14" ht="16" customHeight="1">
+      <c r="M225" s="1"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="1"/>
+    </row>
+    <row r="226" spans="1:15" ht="16" customHeight="1">
       <c r="A226" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="1"/>
+      <c r="C226" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C226" s="6">
+      <c r="D226" s="6">
         <v>4.2</v>
       </c>
-      <c r="D226" s="1">
+      <c r="E226" s="1">
         <v>-73.733333000000002</v>
       </c>
-      <c r="F226" s="1" t="s">
+      <c r="G226" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="H226" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I226" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="J226" s="1">
+      <c r="J226" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="K226" s="1">
         <v>166</v>
       </c>
-      <c r="L226" s="1"/>
-      <c r="M226" s="3"/>
-      <c r="N226" s="1"/>
-    </row>
-    <row r="227" spans="1:14" ht="16" customHeight="1">
+      <c r="M226" s="1"/>
+      <c r="N226" s="3"/>
+      <c r="O226" s="1"/>
+    </row>
+    <row r="227" spans="1:15" ht="16" customHeight="1">
       <c r="A227" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F227" s="1" t="s">
+      <c r="B227" s="1"/>
+      <c r="G227" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="I227" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="J227" s="1">
+      <c r="J227" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="K227" s="1">
         <v>11</v>
       </c>
-      <c r="L227" s="1"/>
-      <c r="M227" s="3"/>
-      <c r="N227" s="1"/>
-    </row>
-    <row r="228" spans="1:14" ht="16" customHeight="1">
+      <c r="M227" s="1"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="1"/>
+    </row>
+    <row r="228" spans="1:15" ht="16" customHeight="1">
       <c r="A228" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="B228" s="1"/>
+      <c r="G228" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I228" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="J228" s="1">
+      <c r="J228" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="K228" s="1">
         <v>12</v>
       </c>
-      <c r="L228" s="1"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="1"/>
-    </row>
-    <row r="229" spans="1:14" ht="16" customHeight="1">
+      <c r="M228" s="1"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="1"/>
+    </row>
+    <row r="229" spans="1:15" ht="16" customHeight="1">
       <c r="A229" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="1"/>
+      <c r="C229" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C229" s="6">
+      <c r="D229" s="6">
         <v>4.7</v>
       </c>
-      <c r="D229" s="1">
+      <c r="E229" s="1">
         <v>-74.366667000000007</v>
       </c>
-      <c r="F229" s="1" t="s">
+      <c r="G229" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="H229" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I229" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="J229" s="1">
+      <c r="J229" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="K229" s="1">
         <v>86</v>
       </c>
-      <c r="L229" s="1"/>
-      <c r="M229" s="3"/>
-      <c r="N229" s="1"/>
-    </row>
-    <row r="230" spans="1:14" ht="16" customHeight="1">
+      <c r="M229" s="1"/>
+      <c r="N229" s="3"/>
+      <c r="O229" s="1"/>
+    </row>
+    <row r="230" spans="1:15" ht="16" customHeight="1">
       <c r="A230" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="1"/>
+      <c r="C230" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C230" s="1">
+      <c r="D230" s="1">
         <v>4.47</v>
       </c>
-      <c r="D230" s="1">
+      <c r="E230" s="1">
         <v>-74.05</v>
       </c>
-      <c r="F230" s="1" t="s">
+      <c r="G230" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="H230" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I230" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="J230" s="1">
+      <c r="J230" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K230" s="1">
         <v>81</v>
       </c>
-      <c r="K230" s="1">
+      <c r="L230" s="1">
         <v>7</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="M230" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="M230" s="3"/>
-      <c r="N230" s="1">
+      <c r="N230" s="3"/>
+      <c r="O230" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="16" customHeight="1">
+    <row r="231" spans="1:15" ht="16" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="1"/>
+      <c r="C231" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C231" s="1">
+      <c r="D231" s="1">
         <v>1.816667</v>
       </c>
-      <c r="D231" s="1">
+      <c r="E231" s="1">
         <v>-78.766666999999998</v>
       </c>
-      <c r="F231" s="1" t="s">
+      <c r="G231" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="H231" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I231" s="1" t="s">
+      <c r="J231" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J231" s="1">
+      <c r="K231" s="1">
         <v>28</v>
       </c>
-      <c r="K231" s="1">
+      <c r="L231" s="1">
         <v>6</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="M231" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M231" s="3"/>
-      <c r="N231" s="1">
+      <c r="N231" s="3"/>
+      <c r="O231" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="232" spans="1:14" ht="16" customHeight="1">
+    <row r="232" spans="1:15" ht="16" customHeight="1">
       <c r="A232" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" s="1"/>
+      <c r="C232" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C232" s="1">
+      <c r="D232" s="1">
         <v>10.333333</v>
       </c>
-      <c r="D232" s="1">
+      <c r="E232" s="1">
         <v>-75.416667000000004</v>
       </c>
-      <c r="F232" s="1" t="s">
+      <c r="G232" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="H232" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I232" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="J232" s="1">
+      <c r="J232" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="K232" s="1">
         <v>133</v>
       </c>
-      <c r="L232" s="1"/>
-      <c r="M232" s="3"/>
-      <c r="N232" s="1"/>
-    </row>
-    <row r="233" spans="1:14" ht="16" customHeight="1">
+      <c r="M232" s="1"/>
+      <c r="N232" s="3"/>
+      <c r="O232" s="1"/>
+    </row>
+    <row r="233" spans="1:15" ht="16" customHeight="1">
       <c r="A233" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="F233" s="1" t="s">
+      <c r="B233" s="1"/>
+      <c r="G233" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I233" s="1" t="s">
+      <c r="J233" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="J233" s="1">
+      <c r="K233" s="1">
         <v>1</v>
       </c>
-      <c r="L233" s="1"/>
-      <c r="M233" s="3"/>
-      <c r="N233" s="1"/>
-    </row>
-    <row r="234" spans="1:14" ht="16" customHeight="1">
+      <c r="M233" s="1"/>
+      <c r="N233" s="3"/>
+      <c r="O233" s="1"/>
+    </row>
+    <row r="234" spans="1:15" ht="16" customHeight="1">
       <c r="A234" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="1"/>
+      <c r="C234" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C234" s="1">
+      <c r="D234" s="1">
         <v>1.9152659999999999</v>
       </c>
-      <c r="D234" s="1">
+      <c r="E234" s="1">
         <v>-76.625303000000002</v>
       </c>
-      <c r="F234" s="1" t="s">
+      <c r="G234" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="H234" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I234" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="J234" s="1">
+      <c r="J234" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K234" s="1">
         <v>63</v>
       </c>
-      <c r="K234" s="1">
+      <c r="L234" s="1">
         <v>4</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="M234" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M234" s="3"/>
-      <c r="N234" s="1">
+      <c r="N234" s="3"/>
+      <c r="O234" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="16" customHeight="1">
+    <row r="235" spans="1:15" ht="16" customHeight="1">
       <c r="A235" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="B235" s="1"/>
+      <c r="G235" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I235" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="L235" s="1"/>
-      <c r="M235" s="3"/>
-      <c r="N235" s="1"/>
-    </row>
-    <row r="236" spans="1:14" ht="16" customHeight="1">
+      <c r="J235" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="M235" s="1"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="1"/>
+    </row>
+    <row r="236" spans="1:15" ht="16" customHeight="1">
       <c r="A236" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F236" s="1" t="s">
+      <c r="B236" s="1"/>
+      <c r="G236" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="I236" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="L236" s="1"/>
-      <c r="M236" s="3"/>
-      <c r="N236" s="1"/>
-    </row>
-    <row r="237" spans="1:14" ht="16" customHeight="1">
+      <c r="J236" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="M236" s="1"/>
+      <c r="N236" s="3"/>
+      <c r="O236" s="1"/>
+    </row>
+    <row r="237" spans="1:15" ht="16" customHeight="1">
       <c r="A237" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F237" s="1" t="s">
+      <c r="B237" s="1"/>
+      <c r="G237" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="H237" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I237" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="J237" s="1">
+      <c r="J237" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="K237" s="1">
         <v>126</v>
       </c>
-      <c r="K237" s="1">
+      <c r="L237" s="1">
         <v>8</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="M237" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="M237" s="3"/>
-      <c r="N237" s="1">
+      <c r="N237" s="3"/>
+      <c r="O237" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="16" customHeight="1">
+    <row r="238" spans="1:15" ht="16" customHeight="1">
       <c r="A238" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F238" s="1" t="s">
+      <c r="B238" s="1"/>
+      <c r="G238" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="I238" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="J238" s="1">
+      <c r="J238" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="K238" s="1">
         <v>109</v>
       </c>
-      <c r="L238" s="1"/>
-      <c r="M238" s="3"/>
-      <c r="N238" s="1"/>
-    </row>
-    <row r="239" spans="1:14">
+      <c r="M238" s="1"/>
+      <c r="N238" s="3"/>
+      <c r="O238" s="1"/>
+    </row>
+    <row r="239" spans="1:15">
       <c r="A239" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="1"/>
+      <c r="C239" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C239" s="1">
+      <c r="D239" s="1">
         <v>4.1509879999999999</v>
       </c>
-      <c r="D239" s="1">
+      <c r="E239" s="1">
         <v>-73.637732</v>
       </c>
-      <c r="E239" s="1">
+      <c r="F239" s="1">
         <v>425</v>
       </c>
-      <c r="F239" s="1" t="s">
+      <c r="G239" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="H239" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I239" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="J239" s="1">
+      <c r="J239" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="K239" s="1">
         <v>164</v>
       </c>
-      <c r="K239" s="1">
+      <c r="L239" s="1">
         <v>7</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="M239" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M239" s="3"/>
-      <c r="N239" s="1">
+      <c r="N239" s="3"/>
+      <c r="O239" s="1">
         <v>337</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N239" xr:uid="{150A19D3-4199-0F4F-97CF-01E6FA9A9E7F}">
-    <sortState ref="A2:N239">
+  <autoFilter ref="A1:O239" xr:uid="{150A19D3-4199-0F4F-97CF-01E6FA9A9E7F}">
+    <sortState ref="A2:O239">
       <sortCondition ref="A1:A239"/>
     </sortState>
   </autoFilter>
